--- a/机队管理系统剩余工作.xlsx
+++ b/机队管理系统剩余工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="各个页面存在的问题" sheetId="1" state="hidden" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="488">
   <si>
     <t>数据是否重新加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2660,6 +2660,58 @@
   </si>
   <si>
     <t>黄启彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：需要补充的功能点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护币种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护物料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能需要修改模型的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机采购订单行增加发动机目录价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机采购订单行增加发动机目录价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加“其他”类型的供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机非FHA发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂项发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修付款计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发文单位（与Manager区分开来）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3189,7 +3241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3310,6 +3362,9 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3332,6 +3387,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3881,13 +3939,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4347,7 +4405,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>68</v>
       </c>
       <c r="C1" s="31" t="s">
@@ -4358,7 +4416,7 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="32" t="s">
         <v>21</v>
       </c>
@@ -4367,7 +4425,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="32" t="s">
         <v>467</v>
       </c>
@@ -4376,7 +4434,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="58"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="32" t="s">
         <v>22</v>
       </c>
@@ -4415,7 +4473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4447,7 +4505,7 @@
       <c r="B3" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4455,7 +4513,7 @@
       <c r="B4" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
     </row>
     <row r="5" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
@@ -4469,7 +4527,7 @@
       <c r="B6" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="60" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4477,19 +4535,19 @@
       <c r="B7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="61"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="61"/>
     </row>
     <row r="9" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="62"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" s="24" t="s">
@@ -4541,10 +4599,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4587,10 +4645,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="38" t="s">
@@ -4609,8 +4667,8 @@
       <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="38" t="s">
         <v>277</v>
       </c>
@@ -4635,8 +4693,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="38" t="s">
         <v>279</v>
       </c>
@@ -4661,8 +4719,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="38" t="s">
@@ -4687,8 +4745,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="38" t="s">
         <v>281</v>
       </c>
@@ -4711,8 +4769,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="38" t="s">
         <v>282</v>
       </c>
@@ -4729,8 +4787,8 @@
       <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="38" t="s">
         <v>283</v>
       </c>
@@ -4747,8 +4805,8 @@
       <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -4773,8 +4831,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="38" t="s">
         <v>285</v>
       </c>
@@ -4800,8 +4858,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="38" t="s">
@@ -4826,8 +4884,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="38" t="s">
         <v>287</v>
       </c>
@@ -4844,8 +4902,8 @@
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="38" t="s">
         <v>288</v>
       </c>
@@ -4870,8 +4928,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="38" t="s">
         <v>289</v>
       </c>
@@ -4897,10 +4955,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="65" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="38" t="s">
@@ -4922,8 +4980,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="38" t="s">
         <v>291</v>
       </c>
@@ -4946,7 +5004,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="36" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="38" t="s">
         <v>122</v>
       </c>
@@ -4976,10 +5034,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="65" t="s">
         <v>125</v>
       </c>
       <c r="C18" s="38" t="s">
@@ -4998,8 +5056,8 @@
       <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="38" t="s">
         <v>294</v>
       </c>
@@ -5022,8 +5080,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="38" t="s">
         <v>295</v>
       </c>
@@ -5049,7 +5107,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="38" t="s">
         <v>129</v>
       </c>
@@ -5075,10 +5133,10 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="65" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5103,8 +5161,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="38" t="s">
         <v>298</v>
       </c>
@@ -5129,10 +5187,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="65" t="s">
         <v>136</v>
       </c>
       <c r="C24" s="38" t="s">
@@ -5161,8 +5219,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="38" t="s">
         <v>300</v>
       </c>
@@ -5183,8 +5241,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="38" t="s">
         <v>301</v>
       </c>
@@ -5201,8 +5259,8 @@
       <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="38" t="s">
         <v>302</v>
       </c>
@@ -5229,8 +5287,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="38" t="s">
         <v>303</v>
       </c>
@@ -5251,8 +5309,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="38" t="s">
         <v>304</v>
       </c>
@@ -5279,8 +5337,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="38" t="s">
         <v>305</v>
       </c>
@@ -5297,8 +5355,8 @@
       <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63" t="s">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65" t="s">
         <v>144</v>
       </c>
       <c r="C31" s="38" t="s">
@@ -5323,8 +5381,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="38" t="s">
         <v>307</v>
       </c>
@@ -5351,8 +5409,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="38" t="s">
         <v>308</v>
       </c>
@@ -5373,7 +5431,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="38" t="s">
         <v>148</v>
       </c>
@@ -5395,8 +5453,8 @@
       <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63" t="s">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65" t="s">
         <v>150</v>
       </c>
       <c r="C35" s="38" t="s">
@@ -5415,8 +5473,8 @@
       <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="38" t="s">
         <v>311</v>
       </c>
@@ -5435,8 +5493,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="38" t="s">
         <v>312</v>
       </c>
@@ -5453,8 +5511,8 @@
       <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="38" t="s">
         <v>313</v>
       </c>
@@ -5471,8 +5529,8 @@
       <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63" t="s">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65" t="s">
         <v>155</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5493,8 +5551,8 @@
       <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="38" t="s">
         <v>315</v>
       </c>
@@ -5511,8 +5569,8 @@
       <c r="H40" s="39"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="38" t="s">
         <v>316</v>
       </c>
@@ -5529,8 +5587,8 @@
       <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="38" t="s">
         <v>318</v>
       </c>
@@ -5547,8 +5605,8 @@
       <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="38" t="s">
         <v>319</v>
       </c>
@@ -5565,8 +5623,8 @@
       <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="38" t="s">
         <v>320</v>
       </c>
@@ -5583,8 +5641,8 @@
       <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
-      <c r="B45" s="63"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="38" t="s">
         <v>321</v>
       </c>
@@ -5601,8 +5659,8 @@
       <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="38" t="s">
         <v>444</v>
       </c>
@@ -5621,8 +5679,8 @@
       <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="63"/>
-      <c r="B47" s="63"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="45" t="s">
         <v>449</v>
       </c>
@@ -5639,10 +5697,10 @@
       <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="65" t="s">
         <v>163</v>
       </c>
       <c r="C48" s="38" t="s">
@@ -5663,8 +5721,8 @@
       <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="38" t="s">
         <v>323</v>
       </c>
@@ -5683,8 +5741,8 @@
       <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="63"/>
-      <c r="B50" s="63"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="38" t="s">
         <v>324</v>
       </c>
@@ -5701,8 +5759,8 @@
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
-      <c r="B51" s="63"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="38" t="s">
         <v>325</v>
       </c>
@@ -5719,8 +5777,8 @@
       <c r="H51" s="38"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
-      <c r="B52" s="63"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="38" t="s">
         <v>326</v>
       </c>
@@ -5737,8 +5795,8 @@
       <c r="H52" s="38"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="63"/>
-      <c r="B53" s="63"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="38" t="s">
         <v>327</v>
       </c>
@@ -5755,8 +5813,8 @@
       <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
-      <c r="B54" s="63" t="s">
+      <c r="A54" s="65"/>
+      <c r="B54" s="65" t="s">
         <v>170</v>
       </c>
       <c r="C54" s="38" t="s">
@@ -5775,8 +5833,8 @@
       <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="63"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="38" t="s">
         <v>328</v>
       </c>
@@ -5793,8 +5851,8 @@
       <c r="H55" s="38"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
-      <c r="B56" s="63"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="38" t="s">
         <v>329</v>
       </c>
@@ -5811,8 +5869,8 @@
       <c r="H56" s="38"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="63"/>
-      <c r="B57" s="63"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="38" t="s">
         <v>330</v>
       </c>
@@ -5829,8 +5887,8 @@
       <c r="H57" s="38"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
-      <c r="B58" s="63"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="38" t="s">
         <v>331</v>
       </c>
@@ -5847,8 +5905,8 @@
       <c r="H58" s="38"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="63"/>
-      <c r="B59" s="63"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="65"/>
       <c r="C59" s="45" t="s">
         <v>332</v>
       </c>
@@ -5865,8 +5923,8 @@
       <c r="H59" s="38"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="63"/>
-      <c r="B60" s="63" t="s">
+      <c r="A60" s="65"/>
+      <c r="B60" s="65" t="s">
         <v>177</v>
       </c>
       <c r="C60" s="38" t="s">
@@ -5885,8 +5943,8 @@
       <c r="H60" s="38"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="63"/>
-      <c r="B61" s="63"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="38" t="s">
         <v>334</v>
       </c>
@@ -5903,8 +5961,8 @@
       <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="63"/>
-      <c r="B62" s="63"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="38" t="s">
         <v>335</v>
       </c>
@@ -5921,8 +5979,8 @@
       <c r="H62" s="38"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
-      <c r="B63" s="63"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="38" t="s">
         <v>336</v>
       </c>
@@ -5939,8 +5997,8 @@
       <c r="H63" s="38"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="63"/>
-      <c r="B64" s="63" t="s">
+      <c r="A64" s="65"/>
+      <c r="B64" s="65" t="s">
         <v>182</v>
       </c>
       <c r="C64" s="38" t="s">
@@ -5959,8 +6017,8 @@
       <c r="H64" s="38"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="63"/>
-      <c r="B65" s="63"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="38" t="s">
         <v>338</v>
       </c>
@@ -5977,8 +6035,8 @@
       <c r="H65" s="38"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="63"/>
-      <c r="B66" s="63"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="38" t="s">
         <v>339</v>
       </c>
@@ -5995,8 +6053,8 @@
       <c r="H66" s="38"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="63"/>
-      <c r="B67" s="63"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="65"/>
       <c r="C67" s="38" t="s">
         <v>340</v>
       </c>
@@ -6013,8 +6071,8 @@
       <c r="H67" s="38"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="63"/>
-      <c r="B68" s="63" t="s">
+      <c r="A68" s="65"/>
+      <c r="B68" s="65" t="s">
         <v>187</v>
       </c>
       <c r="C68" s="38" t="s">
@@ -6033,8 +6091,8 @@
       <c r="H68" s="38"/>
     </row>
     <row r="69" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="63"/>
-      <c r="B69" s="63"/>
+      <c r="A69" s="65"/>
+      <c r="B69" s="65"/>
       <c r="C69" s="38" t="s">
         <v>342</v>
       </c>
@@ -6051,8 +6109,8 @@
       <c r="H69" s="38"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="63"/>
-      <c r="B70" s="63"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="38" t="s">
         <v>343</v>
       </c>
@@ -6069,10 +6127,10 @@
       <c r="H70" s="38"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="63" t="s">
+      <c r="B71" s="65" t="s">
         <v>192</v>
       </c>
       <c r="C71" s="38" t="s">
@@ -6091,8 +6149,8 @@
       <c r="H71" s="38"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="63"/>
-      <c r="B72" s="63"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
       <c r="C72" s="38" t="s">
         <v>345</v>
       </c>
@@ -6109,8 +6167,8 @@
       <c r="H72" s="38"/>
     </row>
     <row r="73" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="63"/>
-      <c r="B73" s="63"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="65"/>
       <c r="C73" s="38" t="s">
         <v>346</v>
       </c>
@@ -6127,8 +6185,8 @@
       <c r="H73" s="38"/>
     </row>
     <row r="74" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="63"/>
-      <c r="B74" s="63"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="65"/>
       <c r="C74" s="38" t="s">
         <v>392</v>
       </c>
@@ -6145,8 +6203,8 @@
       <c r="H74" s="38"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
-      <c r="B75" s="63" t="s">
+      <c r="A75" s="65"/>
+      <c r="B75" s="65" t="s">
         <v>196</v>
       </c>
       <c r="C75" s="38" t="s">
@@ -6165,8 +6223,8 @@
       <c r="H75" s="38"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="63"/>
-      <c r="B76" s="63"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="38" t="s">
         <v>348</v>
       </c>
@@ -6183,8 +6241,8 @@
       <c r="H76" s="38"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="63"/>
-      <c r="B77" s="63"/>
+      <c r="A77" s="65"/>
+      <c r="B77" s="65"/>
       <c r="C77" s="38" t="s">
         <v>349</v>
       </c>
@@ -6201,8 +6259,8 @@
       <c r="H77" s="38"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="63"/>
-      <c r="B78" s="63"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
       <c r="C78" s="38" t="s">
         <v>350</v>
       </c>
@@ -6219,8 +6277,8 @@
       <c r="H78" s="38"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="63"/>
-      <c r="B79" s="63"/>
+      <c r="A79" s="65"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="38"/>
       <c r="D79" s="39" t="s">
         <v>450</v>
@@ -6235,8 +6293,8 @@
       <c r="H79" s="38"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="63"/>
-      <c r="B80" s="63"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="65"/>
       <c r="C80" s="38" t="s">
         <v>351</v>
       </c>
@@ -6253,8 +6311,8 @@
       <c r="H80" s="38"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="63"/>
-      <c r="B81" s="63"/>
+      <c r="A81" s="65"/>
+      <c r="B81" s="65"/>
       <c r="C81" s="38" t="s">
         <v>352</v>
       </c>
@@ -6271,8 +6329,8 @@
       <c r="H81" s="38"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="63"/>
-      <c r="B82" s="63"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
       <c r="C82" s="38" t="s">
         <v>353</v>
       </c>
@@ -6289,8 +6347,8 @@
       <c r="H82" s="38"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="63"/>
-      <c r="B83" s="63"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="65"/>
       <c r="C83" s="38" t="s">
         <v>354</v>
       </c>
@@ -6307,8 +6365,8 @@
       <c r="H83" s="38"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="63"/>
-      <c r="B84" s="63"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="65"/>
       <c r="C84" s="38" t="s">
         <v>355</v>
       </c>
@@ -6325,8 +6383,8 @@
       <c r="H84" s="38"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="63"/>
-      <c r="B85" s="63"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="65"/>
       <c r="C85" s="38" t="s">
         <v>356</v>
       </c>
@@ -6343,8 +6401,8 @@
       <c r="H85" s="38"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="63"/>
-      <c r="B86" s="63"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="65"/>
       <c r="C86" s="41" t="s">
         <v>390</v>
       </c>
@@ -6361,8 +6419,8 @@
       <c r="H86" s="38"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="63"/>
-      <c r="B87" s="63"/>
+      <c r="A87" s="65"/>
+      <c r="B87" s="65"/>
       <c r="C87" s="41" t="s">
         <v>391</v>
       </c>
@@ -6379,7 +6437,7 @@
       <c r="H87" s="38"/>
     </row>
     <row r="88" spans="1:8" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="63"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="38" t="s">
         <v>207</v>
       </c>
@@ -6401,8 +6459,8 @@
       <c r="H88" s="40"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="63"/>
-      <c r="B89" s="63" t="s">
+      <c r="A89" s="65"/>
+      <c r="B89" s="65" t="s">
         <v>209</v>
       </c>
       <c r="C89" s="38" t="s">
@@ -6421,8 +6479,8 @@
       <c r="H89" s="38"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="63"/>
-      <c r="B90" s="63"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="65"/>
       <c r="C90" s="38" t="s">
         <v>359</v>
       </c>
@@ -6439,8 +6497,8 @@
       <c r="H90" s="38"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="63"/>
-      <c r="B91" s="63" t="s">
+      <c r="A91" s="65"/>
+      <c r="B91" s="65" t="s">
         <v>212</v>
       </c>
       <c r="C91" s="38" t="s">
@@ -6461,8 +6519,8 @@
       <c r="H91" s="38"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="63"/>
-      <c r="B92" s="63"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="65"/>
       <c r="C92" s="38" t="s">
         <v>361</v>
       </c>
@@ -6479,8 +6537,8 @@
       <c r="H92" s="38"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="63"/>
-      <c r="B93" s="63"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="65"/>
       <c r="C93" s="38" t="s">
         <v>362</v>
       </c>
@@ -6497,8 +6555,8 @@
       <c r="H93" s="38"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="63"/>
-      <c r="B94" s="63"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="65"/>
       <c r="C94" s="38" t="s">
         <v>464</v>
       </c>
@@ -6515,7 +6573,7 @@
       <c r="H94" s="38"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="63" t="s">
+      <c r="A95" s="65" t="s">
         <v>216</v>
       </c>
       <c r="B95" s="38" t="s">
@@ -6537,7 +6595,7 @@
       <c r="H95" s="40"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="63"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="38" t="s">
         <v>219</v>
       </c>
@@ -6557,7 +6615,7 @@
       <c r="H96" s="40"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="63"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="38" t="s">
         <v>221</v>
       </c>
@@ -6577,7 +6635,7 @@
       <c r="H97" s="40"/>
     </row>
     <row r="98" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="63"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="38" t="s">
         <v>223</v>
       </c>
@@ -6597,10 +6655,10 @@
       <c r="H98" s="40"/>
     </row>
     <row r="99" spans="1:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="63" t="s">
+      <c r="A99" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B99" s="63" t="s">
+      <c r="B99" s="65" t="s">
         <v>226</v>
       </c>
       <c r="C99" s="38" t="s">
@@ -6621,8 +6679,8 @@
       <c r="H99" s="38"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="63"/>
-      <c r="B100" s="63"/>
+      <c r="A100" s="65"/>
+      <c r="B100" s="65"/>
       <c r="C100" s="38" t="s">
         <v>368</v>
       </c>
@@ -6639,10 +6697,10 @@
       <c r="H100" s="38"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="63" t="s">
+      <c r="A101" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="65" t="s">
         <v>230</v>
       </c>
       <c r="C101" s="38" t="s">
@@ -6661,8 +6719,8 @@
       <c r="H101" s="38"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="63"/>
-      <c r="B102" s="63"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="65"/>
       <c r="C102" s="38" t="s">
         <v>370</v>
       </c>
@@ -6679,7 +6737,7 @@
       <c r="H102" s="38"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="63"/>
+      <c r="A103" s="65"/>
       <c r="B103" s="38" t="s">
         <v>233</v>
       </c>
@@ -6699,8 +6757,8 @@
       <c r="H103" s="38"/>
     </row>
     <row r="104" spans="1:8" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="63"/>
-      <c r="B104" s="64" t="s">
+      <c r="A104" s="65"/>
+      <c r="B104" s="66" t="s">
         <v>393</v>
       </c>
       <c r="C104" s="38" t="s">
@@ -6719,8 +6777,8 @@
       <c r="H104" s="38"/>
     </row>
     <row r="105" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="63"/>
-      <c r="B105" s="65"/>
+      <c r="A105" s="65"/>
+      <c r="B105" s="67"/>
       <c r="C105" s="41" t="s">
         <v>395</v>
       </c>
@@ -6735,8 +6793,8 @@
       <c r="H105" s="38"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="63"/>
-      <c r="B106" s="66"/>
+      <c r="A106" s="65"/>
+      <c r="B106" s="68"/>
       <c r="C106" s="41" t="s">
         <v>395</v>
       </c>
@@ -6751,7 +6809,7 @@
       <c r="H106" s="38"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="63" t="s">
+      <c r="A107" s="65" t="s">
         <v>235</v>
       </c>
       <c r="B107" s="38" t="s">
@@ -6777,7 +6835,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="63"/>
+      <c r="A108" s="65"/>
       <c r="B108" s="38" t="s">
         <v>238</v>
       </c>
@@ -6797,8 +6855,8 @@
       <c r="H108" s="38"/>
     </row>
     <row r="109" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="63"/>
-      <c r="B109" s="63" t="s">
+      <c r="A109" s="65"/>
+      <c r="B109" s="65" t="s">
         <v>240</v>
       </c>
       <c r="C109" s="38" t="s">
@@ -6817,8 +6875,8 @@
       <c r="H109" s="38"/>
     </row>
     <row r="110" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="63"/>
-      <c r="B110" s="63"/>
+      <c r="A110" s="65"/>
+      <c r="B110" s="65"/>
       <c r="C110" s="38" t="s">
         <v>375</v>
       </c>
@@ -6835,8 +6893,8 @@
       <c r="H110" s="38"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="63"/>
-      <c r="B111" s="63"/>
+      <c r="A111" s="65"/>
+      <c r="B111" s="65"/>
       <c r="C111" s="38" t="s">
         <v>376</v>
       </c>
@@ -6857,8 +6915,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="63"/>
-      <c r="B112" s="63" t="s">
+      <c r="A112" s="65"/>
+      <c r="B112" s="65" t="s">
         <v>244</v>
       </c>
       <c r="C112" s="38" t="s">
@@ -6879,8 +6937,8 @@
       <c r="H112" s="39"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="63"/>
-      <c r="B113" s="63"/>
+      <c r="A113" s="65"/>
+      <c r="B113" s="65"/>
       <c r="C113" s="38" t="s">
         <v>378</v>
       </c>
@@ -6897,8 +6955,8 @@
       <c r="H113" s="39"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="63"/>
-      <c r="B114" s="63"/>
+      <c r="A114" s="65"/>
+      <c r="B114" s="65"/>
       <c r="C114" s="38" t="s">
         <v>379</v>
       </c>
@@ -6915,8 +6973,8 @@
       <c r="H114" s="39"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="63"/>
-      <c r="B115" s="63"/>
+      <c r="A115" s="65"/>
+      <c r="B115" s="65"/>
       <c r="C115" s="38" t="s">
         <v>380</v>
       </c>
@@ -6933,8 +6991,8 @@
       <c r="H115" s="38"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="63"/>
-      <c r="B116" s="63"/>
+      <c r="A116" s="65"/>
+      <c r="B116" s="65"/>
       <c r="C116" s="38" t="s">
         <v>381</v>
       </c>
@@ -6951,8 +7009,8 @@
       <c r="H116" s="39"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="63"/>
-      <c r="B117" s="63" t="s">
+      <c r="A117" s="65"/>
+      <c r="B117" s="65" t="s">
         <v>250</v>
       </c>
       <c r="C117" s="38" t="s">
@@ -6971,8 +7029,8 @@
       <c r="H117" s="39"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="63"/>
-      <c r="B118" s="63"/>
+      <c r="A118" s="65"/>
+      <c r="B118" s="65"/>
       <c r="C118" s="38" t="s">
         <v>378</v>
       </c>
@@ -6991,8 +7049,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="63"/>
-      <c r="B119" s="63"/>
+      <c r="A119" s="65"/>
+      <c r="B119" s="65"/>
       <c r="C119" s="38" t="s">
         <v>379</v>
       </c>
@@ -7011,8 +7069,8 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="63"/>
-      <c r="B120" s="63"/>
+      <c r="A120" s="65"/>
+      <c r="B120" s="65"/>
       <c r="C120" s="38" t="s">
         <v>380</v>
       </c>
@@ -7031,8 +7089,8 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="63"/>
-      <c r="B121" s="63" t="s">
+      <c r="A121" s="65"/>
+      <c r="B121" s="65" t="s">
         <v>255</v>
       </c>
       <c r="C121" s="38" t="s">
@@ -7053,8 +7111,8 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="63"/>
-      <c r="B122" s="63"/>
+      <c r="A122" s="65"/>
+      <c r="B122" s="65"/>
       <c r="C122" s="38" t="s">
         <v>383</v>
       </c>
@@ -7071,7 +7129,7 @@
       <c r="H122" s="38"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="63" t="s">
+      <c r="A123" s="65" t="s">
         <v>258</v>
       </c>
       <c r="B123" s="38" t="s">
@@ -7093,7 +7151,7 @@
       <c r="H123" s="40"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="63"/>
+      <c r="A124" s="65"/>
       <c r="B124" s="38" t="s">
         <v>261</v>
       </c>
@@ -7113,7 +7171,7 @@
       <c r="H124" s="40"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="63"/>
+      <c r="A125" s="65"/>
       <c r="B125" s="38" t="s">
         <v>263</v>
       </c>
@@ -7133,7 +7191,7 @@
       <c r="H125" s="40"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="63"/>
+      <c r="A126" s="65"/>
       <c r="B126" s="38" t="s">
         <v>265</v>
       </c>
@@ -7153,9 +7211,102 @@
       <c r="H126" s="40"/>
     </row>
     <row r="127" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A128" s="64" t="s">
+        <v>475</v>
+      </c>
+      <c r="B128" s="64"/>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" s="54" t="s">
+        <v>476</v>
+      </c>
+      <c r="E128" s="54" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129" s="54" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>479</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C137">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C138">
+        <v>7</v>
+      </c>
+      <c r="D138" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C139">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>486</v>
+      </c>
+      <c r="F139" t="s">
+        <v>487</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M126"/>
-  <mergeCells count="39">
+  <mergeCells count="40">
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A2:A14"/>
@@ -7184,6 +7335,7 @@
     <mergeCell ref="B75:B87"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="B91:B94"/>
+    <mergeCell ref="A128:B128"/>
     <mergeCell ref="A123:A126"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="B99:B100"/>

--- a/机队管理系统剩余工作.xlsx
+++ b/机队管理系统剩余工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="各个页面存在的问题" sheetId="1" state="hidden" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="488">
   <si>
     <t>数据是否重新加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3388,11 +3388,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4473,7 +4473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4601,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4645,10 +4645,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="38" t="s">
@@ -4667,8 +4667,8 @@
       <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="38" t="s">
         <v>277</v>
       </c>
@@ -4693,8 +4693,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="38" t="s">
         <v>279</v>
       </c>
@@ -4719,8 +4719,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="38" t="s">
@@ -4745,8 +4745,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="38" t="s">
         <v>281</v>
       </c>
@@ -4769,8 +4769,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="38" t="s">
         <v>282</v>
       </c>
@@ -4787,8 +4787,8 @@
       <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="38" t="s">
         <v>283</v>
       </c>
@@ -4805,8 +4805,8 @@
       <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="64" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -4831,8 +4831,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="38" t="s">
         <v>285</v>
       </c>
@@ -4858,8 +4858,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="38" t="s">
@@ -4884,8 +4884,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="38" t="s">
         <v>287</v>
       </c>
@@ -4902,8 +4902,8 @@
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="38" t="s">
         <v>288</v>
       </c>
@@ -4928,8 +4928,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="38" t="s">
         <v>289</v>
       </c>
@@ -4955,10 +4955,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="38" t="s">
@@ -4980,8 +4980,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="38" t="s">
         <v>291</v>
       </c>
@@ -5004,7 +5004,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="36" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="38" t="s">
         <v>122</v>
       </c>
@@ -5034,10 +5034,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="64" t="s">
         <v>125</v>
       </c>
       <c r="C18" s="38" t="s">
@@ -5056,8 +5056,8 @@
       <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="38" t="s">
         <v>294</v>
       </c>
@@ -5080,8 +5080,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="38" t="s">
         <v>295</v>
       </c>
@@ -5107,7 +5107,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="38" t="s">
         <v>129</v>
       </c>
@@ -5133,10 +5133,10 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="64" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5161,8 +5161,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="38" t="s">
         <v>298</v>
       </c>
@@ -5187,10 +5187,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="64" t="s">
         <v>136</v>
       </c>
       <c r="C24" s="38" t="s">
@@ -5202,8 +5202,8 @@
       <c r="E24" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="F24" s="40">
-        <v>0.8</v>
+      <c r="F24" s="40" t="s">
+        <v>388</v>
       </c>
       <c r="G24" s="49" t="s">
         <v>438</v>
@@ -5219,8 +5219,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="38" t="s">
         <v>300</v>
       </c>
@@ -5230,8 +5230,8 @@
       <c r="E25" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="F25" s="40">
-        <v>0.8</v>
+      <c r="F25" s="40" t="s">
+        <v>388</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>437</v>
@@ -5241,8 +5241,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="38" t="s">
         <v>301</v>
       </c>
@@ -5259,8 +5259,8 @@
       <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="38" t="s">
         <v>302</v>
       </c>
@@ -5287,8 +5287,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="38" t="s">
         <v>303</v>
       </c>
@@ -5309,8 +5309,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="38" t="s">
         <v>304</v>
       </c>
@@ -5337,8 +5337,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="38" t="s">
         <v>305</v>
       </c>
@@ -5355,8 +5355,8 @@
       <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="64" t="s">
         <v>144</v>
       </c>
       <c r="C31" s="38" t="s">
@@ -5368,8 +5368,8 @@
       <c r="E31" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="F31" s="38" t="s">
-        <v>388</v>
+      <c r="F31" s="40">
+        <v>0.5</v>
       </c>
       <c r="G31" s="51"/>
       <c r="H31" s="38"/>
@@ -5381,8 +5381,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="38" t="s">
         <v>307</v>
       </c>
@@ -5409,8 +5409,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="38" t="s">
         <v>308</v>
       </c>
@@ -5431,7 +5431,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="65"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="38" t="s">
         <v>148</v>
       </c>
@@ -5453,8 +5453,8 @@
       <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64" t="s">
         <v>150</v>
       </c>
       <c r="C35" s="38" t="s">
@@ -5473,8 +5473,8 @@
       <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="38" t="s">
         <v>311</v>
       </c>
@@ -5493,8 +5493,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="38" t="s">
         <v>312</v>
       </c>
@@ -5511,8 +5511,8 @@
       <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="38" t="s">
         <v>313</v>
       </c>
@@ -5529,8 +5529,8 @@
       <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="64" t="s">
         <v>155</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5551,8 +5551,8 @@
       <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="38" t="s">
         <v>315</v>
       </c>
@@ -5569,8 +5569,8 @@
       <c r="H40" s="39"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="38" t="s">
         <v>316</v>
       </c>
@@ -5587,8 +5587,8 @@
       <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="38" t="s">
         <v>318</v>
       </c>
@@ -5605,8 +5605,8 @@
       <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="38" t="s">
         <v>319</v>
       </c>
@@ -5623,8 +5623,8 @@
       <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="38" t="s">
         <v>320</v>
       </c>
@@ -5641,8 +5641,8 @@
       <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="38" t="s">
         <v>321</v>
       </c>
@@ -5659,8 +5659,8 @@
       <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="38" t="s">
         <v>444</v>
       </c>
@@ -5679,8 +5679,8 @@
       <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="45" t="s">
         <v>449</v>
       </c>
@@ -5697,10 +5697,10 @@
       <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="64" t="s">
         <v>163</v>
       </c>
       <c r="C48" s="38" t="s">
@@ -5712,8 +5712,8 @@
       <c r="E48" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="F48" s="40">
-        <v>0.8</v>
+      <c r="F48" s="40" t="s">
+        <v>388</v>
       </c>
       <c r="G48" s="49" t="s">
         <v>446</v>
@@ -5721,8 +5721,8 @@
       <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="38" t="s">
         <v>323</v>
       </c>
@@ -5741,8 +5741,8 @@
       <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="38" t="s">
         <v>324</v>
       </c>
@@ -5759,8 +5759,8 @@
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="38" t="s">
         <v>325</v>
       </c>
@@ -5777,8 +5777,8 @@
       <c r="H51" s="38"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="38" t="s">
         <v>326</v>
       </c>
@@ -5795,8 +5795,8 @@
       <c r="H52" s="38"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="38" t="s">
         <v>327</v>
       </c>
@@ -5813,8 +5813,8 @@
       <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65" t="s">
+      <c r="A54" s="64"/>
+      <c r="B54" s="64" t="s">
         <v>170</v>
       </c>
       <c r="C54" s="38" t="s">
@@ -5833,8 +5833,8 @@
       <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="38" t="s">
         <v>328</v>
       </c>
@@ -5851,8 +5851,8 @@
       <c r="H55" s="38"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
       <c r="C56" s="38" t="s">
         <v>329</v>
       </c>
@@ -5869,8 +5869,8 @@
       <c r="H56" s="38"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="38" t="s">
         <v>330</v>
       </c>
@@ -5887,8 +5887,8 @@
       <c r="H57" s="38"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="38" t="s">
         <v>331</v>
       </c>
@@ -5905,8 +5905,8 @@
       <c r="H58" s="38"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="65"/>
-      <c r="B59" s="65"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="45" t="s">
         <v>332</v>
       </c>
@@ -5923,8 +5923,8 @@
       <c r="H59" s="38"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="65"/>
-      <c r="B60" s="65" t="s">
+      <c r="A60" s="64"/>
+      <c r="B60" s="64" t="s">
         <v>177</v>
       </c>
       <c r="C60" s="38" t="s">
@@ -5943,8 +5943,8 @@
       <c r="H60" s="38"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="38" t="s">
         <v>334</v>
       </c>
@@ -5961,8 +5961,8 @@
       <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="65"/>
-      <c r="B62" s="65"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
       <c r="C62" s="38" t="s">
         <v>335</v>
       </c>
@@ -5979,8 +5979,8 @@
       <c r="H62" s="38"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="38" t="s">
         <v>336</v>
       </c>
@@ -5997,8 +5997,8 @@
       <c r="H63" s="38"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65" t="s">
+      <c r="A64" s="64"/>
+      <c r="B64" s="64" t="s">
         <v>182</v>
       </c>
       <c r="C64" s="38" t="s">
@@ -6017,8 +6017,8 @@
       <c r="H64" s="38"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="65"/>
-      <c r="B65" s="65"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="38" t="s">
         <v>338</v>
       </c>
@@ -6035,8 +6035,8 @@
       <c r="H65" s="38"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="65"/>
-      <c r="B66" s="65"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="38" t="s">
         <v>339</v>
       </c>
@@ -6053,8 +6053,8 @@
       <c r="H66" s="38"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="65"/>
-      <c r="B67" s="65"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="38" t="s">
         <v>340</v>
       </c>
@@ -6071,8 +6071,8 @@
       <c r="H67" s="38"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65" t="s">
+      <c r="A68" s="64"/>
+      <c r="B68" s="64" t="s">
         <v>187</v>
       </c>
       <c r="C68" s="38" t="s">
@@ -6091,8 +6091,8 @@
       <c r="H68" s="38"/>
     </row>
     <row r="69" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="65"/>
-      <c r="B69" s="65"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="38" t="s">
         <v>342</v>
       </c>
@@ -6109,8 +6109,8 @@
       <c r="H69" s="38"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="65"/>
-      <c r="B70" s="65"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
       <c r="C70" s="38" t="s">
         <v>343</v>
       </c>
@@ -6127,10 +6127,10 @@
       <c r="H70" s="38"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="65" t="s">
+      <c r="B71" s="64" t="s">
         <v>192</v>
       </c>
       <c r="C71" s="38" t="s">
@@ -6149,8 +6149,8 @@
       <c r="H71" s="38"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="64"/>
       <c r="C72" s="38" t="s">
         <v>345</v>
       </c>
@@ -6167,8 +6167,8 @@
       <c r="H72" s="38"/>
     </row>
     <row r="73" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="65"/>
-      <c r="B73" s="65"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="38" t="s">
         <v>346</v>
       </c>
@@ -6185,8 +6185,8 @@
       <c r="H73" s="38"/>
     </row>
     <row r="74" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
       <c r="C74" s="38" t="s">
         <v>392</v>
       </c>
@@ -6197,14 +6197,14 @@
         <v>276</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G74" s="48"/>
       <c r="H74" s="38"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="65"/>
-      <c r="B75" s="65" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="64" t="s">
         <v>196</v>
       </c>
       <c r="C75" s="38" t="s">
@@ -6223,8 +6223,8 @@
       <c r="H75" s="38"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="38" t="s">
         <v>348</v>
       </c>
@@ -6241,8 +6241,8 @@
       <c r="H76" s="38"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="38" t="s">
         <v>349</v>
       </c>
@@ -6259,8 +6259,8 @@
       <c r="H77" s="38"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="64"/>
       <c r="C78" s="38" t="s">
         <v>350</v>
       </c>
@@ -6277,8 +6277,8 @@
       <c r="H78" s="38"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="64"/>
       <c r="C79" s="38"/>
       <c r="D79" s="39" t="s">
         <v>450</v>
@@ -6287,14 +6287,14 @@
         <v>276</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G79" s="48"/>
       <c r="H79" s="38"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
+      <c r="A80" s="64"/>
+      <c r="B80" s="64"/>
       <c r="C80" s="38" t="s">
         <v>351</v>
       </c>
@@ -6311,8 +6311,8 @@
       <c r="H80" s="38"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="65"/>
-      <c r="B81" s="65"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="38" t="s">
         <v>352</v>
       </c>
@@ -6329,8 +6329,8 @@
       <c r="H81" s="38"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
+      <c r="A82" s="64"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="38" t="s">
         <v>353</v>
       </c>
@@ -6347,8 +6347,8 @@
       <c r="H82" s="38"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="64"/>
       <c r="C83" s="38" t="s">
         <v>354</v>
       </c>
@@ -6365,8 +6365,8 @@
       <c r="H83" s="38"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
+      <c r="A84" s="64"/>
+      <c r="B84" s="64"/>
       <c r="C84" s="38" t="s">
         <v>355</v>
       </c>
@@ -6377,14 +6377,14 @@
         <v>276</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G84" s="48"/>
       <c r="H84" s="38"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="65"/>
-      <c r="B85" s="65"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="64"/>
       <c r="C85" s="38" t="s">
         <v>356</v>
       </c>
@@ -6395,14 +6395,14 @@
         <v>276</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G85" s="48"/>
       <c r="H85" s="38"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="65"/>
-      <c r="B86" s="65"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="64"/>
       <c r="C86" s="41" t="s">
         <v>390</v>
       </c>
@@ -6419,8 +6419,8 @@
       <c r="H86" s="38"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="65"/>
-      <c r="B87" s="65"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="64"/>
       <c r="C87" s="41" t="s">
         <v>391</v>
       </c>
@@ -6437,7 +6437,7 @@
       <c r="H87" s="38"/>
     </row>
     <row r="88" spans="1:8" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="65"/>
+      <c r="A88" s="64"/>
       <c r="B88" s="38" t="s">
         <v>207</v>
       </c>
@@ -6459,8 +6459,8 @@
       <c r="H88" s="40"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="65"/>
-      <c r="B89" s="65" t="s">
+      <c r="A89" s="64"/>
+      <c r="B89" s="64" t="s">
         <v>209</v>
       </c>
       <c r="C89" s="38" t="s">
@@ -6479,8 +6479,8 @@
       <c r="H89" s="38"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="65"/>
-      <c r="B90" s="65"/>
+      <c r="A90" s="64"/>
+      <c r="B90" s="64"/>
       <c r="C90" s="38" t="s">
         <v>359</v>
       </c>
@@ -6497,8 +6497,8 @@
       <c r="H90" s="38"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="65"/>
-      <c r="B91" s="65" t="s">
+      <c r="A91" s="64"/>
+      <c r="B91" s="64" t="s">
         <v>212</v>
       </c>
       <c r="C91" s="38" t="s">
@@ -6510,8 +6510,8 @@
       <c r="E91" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="F91" s="40">
-        <v>0.8</v>
+      <c r="F91" s="40" t="s">
+        <v>388</v>
       </c>
       <c r="G91" s="49" t="s">
         <v>454</v>
@@ -6519,8 +6519,8 @@
       <c r="H91" s="38"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
+      <c r="A92" s="64"/>
+      <c r="B92" s="64"/>
       <c r="C92" s="38" t="s">
         <v>361</v>
       </c>
@@ -6537,8 +6537,8 @@
       <c r="H92" s="38"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="65"/>
-      <c r="B93" s="65"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="38" t="s">
         <v>362</v>
       </c>
@@ -6555,8 +6555,8 @@
       <c r="H93" s="38"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="64"/>
       <c r="C94" s="38" t="s">
         <v>464</v>
       </c>
@@ -6573,7 +6573,7 @@
       <c r="H94" s="38"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="65" t="s">
+      <c r="A95" s="64" t="s">
         <v>216</v>
       </c>
       <c r="B95" s="38" t="s">
@@ -6595,7 +6595,7 @@
       <c r="H95" s="40"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="65"/>
+      <c r="A96" s="64"/>
       <c r="B96" s="38" t="s">
         <v>219</v>
       </c>
@@ -6615,7 +6615,7 @@
       <c r="H96" s="40"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="65"/>
+      <c r="A97" s="64"/>
       <c r="B97" s="38" t="s">
         <v>221</v>
       </c>
@@ -6635,7 +6635,7 @@
       <c r="H97" s="40"/>
     </row>
     <row r="98" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="65"/>
+      <c r="A98" s="64"/>
       <c r="B98" s="38" t="s">
         <v>223</v>
       </c>
@@ -6655,10 +6655,10 @@
       <c r="H98" s="40"/>
     </row>
     <row r="99" spans="1:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="65" t="s">
+      <c r="A99" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="B99" s="65" t="s">
+      <c r="B99" s="64" t="s">
         <v>226</v>
       </c>
       <c r="C99" s="38" t="s">
@@ -6679,8 +6679,8 @@
       <c r="H99" s="38"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="65"/>
-      <c r="B100" s="65"/>
+      <c r="A100" s="64"/>
+      <c r="B100" s="64"/>
       <c r="C100" s="38" t="s">
         <v>368</v>
       </c>
@@ -6697,10 +6697,10 @@
       <c r="H100" s="38"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="65" t="s">
+      <c r="A101" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="B101" s="65" t="s">
+      <c r="B101" s="64" t="s">
         <v>230</v>
       </c>
       <c r="C101" s="38" t="s">
@@ -6719,8 +6719,8 @@
       <c r="H101" s="38"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="65"/>
-      <c r="B102" s="65"/>
+      <c r="A102" s="64"/>
+      <c r="B102" s="64"/>
       <c r="C102" s="38" t="s">
         <v>370</v>
       </c>
@@ -6737,7 +6737,7 @@
       <c r="H102" s="38"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="65"/>
+      <c r="A103" s="64"/>
       <c r="B103" s="38" t="s">
         <v>233</v>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="H103" s="38"/>
     </row>
     <row r="104" spans="1:8" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="65"/>
+      <c r="A104" s="64"/>
       <c r="B104" s="66" t="s">
         <v>393</v>
       </c>
@@ -6777,7 +6777,7 @@
       <c r="H104" s="38"/>
     </row>
     <row r="105" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="65"/>
+      <c r="A105" s="64"/>
       <c r="B105" s="67"/>
       <c r="C105" s="41" t="s">
         <v>395</v>
@@ -6793,7 +6793,7 @@
       <c r="H105" s="38"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="65"/>
+      <c r="A106" s="64"/>
       <c r="B106" s="68"/>
       <c r="C106" s="41" t="s">
         <v>395</v>
@@ -6809,7 +6809,7 @@
       <c r="H106" s="38"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="65" t="s">
+      <c r="A107" s="64" t="s">
         <v>235</v>
       </c>
       <c r="B107" s="38" t="s">
@@ -6835,7 +6835,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="65"/>
+      <c r="A108" s="64"/>
       <c r="B108" s="38" t="s">
         <v>238</v>
       </c>
@@ -6855,8 +6855,8 @@
       <c r="H108" s="38"/>
     </row>
     <row r="109" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="65"/>
-      <c r="B109" s="65" t="s">
+      <c r="A109" s="64"/>
+      <c r="B109" s="64" t="s">
         <v>240</v>
       </c>
       <c r="C109" s="38" t="s">
@@ -6875,8 +6875,8 @@
       <c r="H109" s="38"/>
     </row>
     <row r="110" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="65"/>
-      <c r="B110" s="65"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
       <c r="C110" s="38" t="s">
         <v>375</v>
       </c>
@@ -6893,8 +6893,8 @@
       <c r="H110" s="38"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="65"/>
-      <c r="B111" s="65"/>
+      <c r="A111" s="64"/>
+      <c r="B111" s="64"/>
       <c r="C111" s="38" t="s">
         <v>376</v>
       </c>
@@ -6915,8 +6915,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="65"/>
-      <c r="B112" s="65" t="s">
+      <c r="A112" s="64"/>
+      <c r="B112" s="64" t="s">
         <v>244</v>
       </c>
       <c r="C112" s="38" t="s">
@@ -6937,8 +6937,8 @@
       <c r="H112" s="39"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="65"/>
-      <c r="B113" s="65"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="64"/>
       <c r="C113" s="38" t="s">
         <v>378</v>
       </c>
@@ -6955,8 +6955,8 @@
       <c r="H113" s="39"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="65"/>
-      <c r="B114" s="65"/>
+      <c r="A114" s="64"/>
+      <c r="B114" s="64"/>
       <c r="C114" s="38" t="s">
         <v>379</v>
       </c>
@@ -6973,8 +6973,8 @@
       <c r="H114" s="39"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="65"/>
-      <c r="B115" s="65"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="64"/>
       <c r="C115" s="38" t="s">
         <v>380</v>
       </c>
@@ -6991,8 +6991,8 @@
       <c r="H115" s="38"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="65"/>
-      <c r="B116" s="65"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
       <c r="C116" s="38" t="s">
         <v>381</v>
       </c>
@@ -7009,8 +7009,8 @@
       <c r="H116" s="39"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="65"/>
-      <c r="B117" s="65" t="s">
+      <c r="A117" s="64"/>
+      <c r="B117" s="64" t="s">
         <v>250</v>
       </c>
       <c r="C117" s="38" t="s">
@@ -7029,8 +7029,8 @@
       <c r="H117" s="39"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="65"/>
-      <c r="B118" s="65"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="64"/>
       <c r="C118" s="38" t="s">
         <v>378</v>
       </c>
@@ -7049,8 +7049,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="65"/>
-      <c r="B119" s="65"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="64"/>
       <c r="C119" s="38" t="s">
         <v>379</v>
       </c>
@@ -7069,8 +7069,8 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="65"/>
-      <c r="B120" s="65"/>
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
       <c r="C120" s="38" t="s">
         <v>380</v>
       </c>
@@ -7089,8 +7089,8 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="65"/>
-      <c r="B121" s="65" t="s">
+      <c r="A121" s="64"/>
+      <c r="B121" s="64" t="s">
         <v>255</v>
       </c>
       <c r="C121" s="38" t="s">
@@ -7111,8 +7111,8 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="65"/>
-      <c r="B122" s="65"/>
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
       <c r="C122" s="38" t="s">
         <v>383</v>
       </c>
@@ -7129,7 +7129,7 @@
       <c r="H122" s="38"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="65" t="s">
+      <c r="A123" s="64" t="s">
         <v>258</v>
       </c>
       <c r="B123" s="38" t="s">
@@ -7151,7 +7151,7 @@
       <c r="H123" s="40"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="65"/>
+      <c r="A124" s="64"/>
       <c r="B124" s="38" t="s">
         <v>261</v>
       </c>
@@ -7171,7 +7171,7 @@
       <c r="H124" s="40"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="65"/>
+      <c r="A125" s="64"/>
       <c r="B125" s="38" t="s">
         <v>263</v>
       </c>
@@ -7191,7 +7191,7 @@
       <c r="H125" s="40"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="65"/>
+      <c r="A126" s="64"/>
       <c r="B126" s="38" t="s">
         <v>265</v>
       </c>
@@ -7212,10 +7212,10 @@
     </row>
     <row r="127" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="128" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A128" s="64" t="s">
+      <c r="A128" s="65" t="s">
         <v>475</v>
       </c>
-      <c r="B128" s="64"/>
+      <c r="B128" s="65"/>
       <c r="C128">
         <v>1</v>
       </c>
@@ -7307,22 +7307,18 @@
   </sheetData>
   <autoFilter ref="A1:M126"/>
   <mergeCells count="40">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A47"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A107:A122"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B104:B106"/>
     <mergeCell ref="A95:A98"/>
     <mergeCell ref="A48:A70"/>
     <mergeCell ref="B48:B53"/>
@@ -7335,18 +7331,22 @@
     <mergeCell ref="B75:B87"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="B91:B94"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="A107:A122"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A47"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/机队管理系统剩余工作.xlsx
+++ b/机队管理系统剩余工作.xlsx
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="503">
   <si>
     <t>数据是否重新加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1065,9 +1065,6 @@
     </r>
   </si>
   <si>
-    <t>匹配计划飞机</t>
-  </si>
-  <si>
     <r>
       <t>6.3</t>
     </r>
@@ -2488,10 +2485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>维护时，先维护有合同的飞机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以考虑将维护飞机的证照和更新飞机数据放到一块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2513,10 +2506,6 @@
   </si>
   <si>
     <t>发动机物料增加“目录价”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件发送服务，在飞机数据中维护初始的装机发动机的型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2712,6 +2701,94 @@
   </si>
   <si>
     <t>已添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能再确定是否需要做（维护单表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个功能可由其他界面替代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作预计完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-5-14~~2014-5-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估一周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否替代原“分析维修成本功能”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>三天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三天（包括模型讨论）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>一天</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配计划飞机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2836,7 +2913,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2873,8 +2950,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -3237,11 +3320,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3365,6 +3472,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3388,7 +3508,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3402,6 +3531,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3939,13 +4071,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4405,41 +4537,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="62" t="s">
         <v>68</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="58"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="63"/>
+      <c r="C3" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="D3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="58"/>
-      <c r="C3" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="D3" t="s">
-        <v>268</v>
-      </c>
-    </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="59"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4452,12 +4584,12 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4505,7 +4637,7 @@
       <c r="B3" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="65" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4513,7 +4645,7 @@
       <c r="B4" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="68"/>
     </row>
     <row r="5" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
@@ -4527,7 +4659,7 @@
       <c r="B6" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="65" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4535,19 +4667,19 @@
       <c r="B7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="66"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="66"/>
     </row>
     <row r="9" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="67"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" s="24" t="s">
@@ -4599,10 +4731,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4626,197 +4759,200 @@
         <v>98</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>274</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>275</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>102</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G2" s="48"/>
       <c r="H2" s="38"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
+    <row r="3" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H3" s="38"/>
       <c r="L3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F4" s="40">
         <v>0.8</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H4" s="38"/>
       <c r="L4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>106</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="38"/>
       <c r="L5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>107</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="38"/>
       <c r="L6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>108</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>109</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G8" s="48"/>
       <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="70"/>
+      <c r="B9" s="70" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="40">
         <v>0.3</v>
@@ -4824,23 +4960,23 @@
       <c r="G9" s="48"/>
       <c r="H9" s="38"/>
       <c r="L9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F10" s="40">
         <v>0.3</v>
@@ -4848,305 +4984,305 @@
       <c r="G10" s="48"/>
       <c r="H10" s="38"/>
       <c r="K10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="72"/>
+      <c r="B11" s="70" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>114</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G11" s="48"/>
       <c r="H11" s="38"/>
       <c r="L11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>115</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G12" s="48"/>
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F13" s="40">
         <v>0.8</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H13" s="38"/>
       <c r="L13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="72"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>117</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="38"/>
       <c r="K14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L14" t="s">
+        <v>409</v>
+      </c>
+      <c r="M14" t="s">
         <v>410</v>
       </c>
-      <c r="M14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+    </row>
+    <row r="15" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="70" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>120</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G15" s="48"/>
       <c r="H15" s="38"/>
       <c r="L15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>121</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G16" s="48"/>
       <c r="H16" s="38"/>
       <c r="L16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="36" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>123</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G17" s="48"/>
       <c r="H17" s="38"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="L17" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="L17" s="35" t="s">
-        <v>414</v>
-      </c>
       <c r="M17" s="35" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="70" t="s">
         <v>125</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>126</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G18" s="48"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
+    <row r="19" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>127</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="38"/>
       <c r="L19" t="s">
+        <v>422</v>
+      </c>
+      <c r="M19" t="s">
         <v>423</v>
       </c>
-      <c r="M19" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>128</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G20" s="48"/>
       <c r="H20" s="38"/>
       <c r="K20" t="s">
+        <v>415</v>
+      </c>
+      <c r="L20" t="s">
         <v>416</v>
       </c>
-      <c r="L20" t="s">
-        <v>417</v>
-      </c>
       <c r="M20" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="70"/>
       <c r="B21" s="38" t="s">
         <v>129</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>130</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="38"/>
       <c r="L21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="70" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>133</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F22" s="40">
         <v>0.8</v>
@@ -5154,1439 +5290,1493 @@
       <c r="G22" s="50"/>
       <c r="H22" s="40"/>
       <c r="L22" t="s">
+        <v>418</v>
+      </c>
+      <c r="M22" t="s">
         <v>419</v>
       </c>
-      <c r="M22" t="s">
-        <v>420</v>
-      </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>134</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H23" s="38"/>
       <c r="L23" t="s">
+        <v>424</v>
+      </c>
+      <c r="M23" t="s">
         <v>425</v>
       </c>
-      <c r="M23" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="64" t="s">
+    </row>
+    <row r="24" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="70" t="s">
         <v>136</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>137</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L24" t="s">
+        <v>420</v>
+      </c>
+      <c r="M24" t="s">
         <v>421</v>
       </c>
-      <c r="M24" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>138</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>139</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G26" s="48"/>
       <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>140</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F27" s="40">
         <v>0.8</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>473</v>
+        <v>470</v>
+      </c>
+      <c r="I27" s="69" t="s">
+        <v>489</v>
       </c>
       <c r="K27" t="s">
+        <v>426</v>
+      </c>
+      <c r="L27" t="s">
         <v>427</v>
       </c>
-      <c r="L27" t="s">
-        <v>428</v>
-      </c>
     </row>
     <row r="28" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>141</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F28" s="40">
         <v>0.8</v>
       </c>
       <c r="G28" s="51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>473</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="I28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>142</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F29" s="40">
         <v>0.8</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>473</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="I29" s="69"/>
       <c r="K29" t="s">
+        <v>428</v>
+      </c>
+      <c r="L29" t="s">
         <v>429</v>
       </c>
-      <c r="L29" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>143</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G30" s="51"/>
       <c r="H30" s="38"/>
+      <c r="I30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64" t="s">
+      <c r="A31" s="70"/>
+      <c r="B31" s="70" t="s">
         <v>144</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>145</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F31" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="38"/>
+        <v>0.8</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="I31" s="69"/>
       <c r="L31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>146</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F32" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>441</v>
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>439</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>473</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="I32" s="69"/>
       <c r="L32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
+    <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>147</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F33" s="40">
         <v>0.8</v>
       </c>
       <c r="G33" s="51" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="H33" s="42" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="64"/>
+        <v>470</v>
+      </c>
+      <c r="I33" s="69"/>
+    </row>
+    <row r="34" spans="1:9" ht="24" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="70"/>
       <c r="B34" s="38" t="s">
         <v>148</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>149</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H34" s="38"/>
     </row>
-    <row r="35" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64" t="s">
+    <row r="35" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="70"/>
+      <c r="B35" s="70" t="s">
         <v>150</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>151</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G35" s="48"/>
       <c r="H35" s="38"/>
     </row>
-    <row r="36" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
+    <row r="36" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>152</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F36" s="40">
         <v>0.8</v>
       </c>
       <c r="G36" s="48"/>
       <c r="H36" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64"/>
+        <v>470</v>
+      </c>
+      <c r="I36" s="56">
+        <v>41776</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>153</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G37" s="48"/>
       <c r="H37" s="38"/>
     </row>
-    <row r="38" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
+    <row r="38" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>154</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G38" s="48"/>
       <c r="H38" s="38"/>
     </row>
-    <row r="39" spans="1:8" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64" t="s">
+    <row r="39" spans="1:9" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="70"/>
+      <c r="B39" s="70" t="s">
         <v>155</v>
       </c>
       <c r="C39" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="D39" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="38" t="s">
         <v>314</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="H39" s="38"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="38" t="s">
-        <v>315</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>157</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F40" s="40">
-        <v>0.8</v>
+        <v>275</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>387</v>
       </c>
       <c r="G40" s="48"/>
       <c r="H40" s="39"/>
     </row>
-    <row r="41" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
+    <row r="41" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="D41" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="D41" s="39" t="s">
-        <v>317</v>
-      </c>
       <c r="E41" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F41" s="40">
-        <v>0.8</v>
+        <v>275</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>387</v>
       </c>
       <c r="G41" s="48"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
+    <row r="42" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>158</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F42" s="40">
-        <v>0.8</v>
+        <v>275</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>387</v>
       </c>
       <c r="G42" s="48"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
+    <row r="43" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>159</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F43" s="40">
-        <v>0.8</v>
+        <v>275</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>387</v>
       </c>
       <c r="G43" s="48"/>
       <c r="H43" s="39"/>
     </row>
-    <row r="44" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
+    <row r="44" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="70"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>160</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F44" s="40">
-        <v>0.8</v>
+        <v>275</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>387</v>
       </c>
       <c r="G44" s="48"/>
       <c r="H44" s="39"/>
     </row>
-    <row r="45" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64"/>
+    <row r="45" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>161</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F45" s="40">
-        <v>0.8</v>
+        <v>275</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>387</v>
       </c>
       <c r="G45" s="48"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
+    <row r="46" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="38" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G46" s="49" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
+    <row r="47" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="70"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="45" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F47" s="46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G47" s="52"/>
       <c r="H47" s="39"/>
     </row>
-    <row r="48" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="64" t="s">
+    <row r="48" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="70" t="s">
         <v>163</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>164</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G48" s="49" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="64"/>
-      <c r="B49" s="64"/>
+    <row r="49" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>165</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F49" s="40">
         <v>0.8</v>
       </c>
       <c r="G49" s="49" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H49" s="38"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
+      <c r="I49" s="57" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>166</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G50" s="48"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
+    <row r="51" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>167</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G51" s="48"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
+    <row r="52" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>168</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G52" s="48"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
+    <row r="53" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="70"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>169</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G53" s="48"/>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64" t="s">
+    <row r="54" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="70"/>
+      <c r="B54" s="70" t="s">
         <v>170</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>171</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G54" s="48"/>
       <c r="H54" s="38"/>
     </row>
-    <row r="55" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="64"/>
-      <c r="B55" s="64"/>
+    <row r="55" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="70"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>172</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G55" s="48"/>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
+    <row r="56" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
       <c r="C56" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>173</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G56" s="48"/>
       <c r="H56" s="38"/>
     </row>
-    <row r="57" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="64"/>
-      <c r="B57" s="64"/>
+    <row r="57" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
       <c r="C57" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>174</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G57" s="48"/>
       <c r="H57" s="38"/>
     </row>
-    <row r="58" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
+    <row r="58" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
       <c r="C58" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>175</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G58" s="48"/>
       <c r="H58" s="38"/>
     </row>
-    <row r="59" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="64"/>
-      <c r="B59" s="64"/>
+    <row r="59" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="70"/>
+      <c r="B59" s="70"/>
       <c r="C59" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>176</v>
+        <v>502</v>
       </c>
       <c r="E59" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F59" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G59" s="52"/>
       <c r="H59" s="38"/>
-    </row>
-    <row r="60" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64" t="s">
+      <c r="I59" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="70"/>
+      <c r="B60" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D60" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>178</v>
-      </c>
       <c r="E60" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G60" s="48"/>
       <c r="H60" s="38"/>
     </row>
-    <row r="61" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="64"/>
-      <c r="B61" s="64"/>
+    <row r="61" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
       <c r="C61" s="38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G61" s="48"/>
       <c r="H61" s="38"/>
     </row>
-    <row r="62" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="64"/>
-      <c r="B62" s="64"/>
+    <row r="62" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
       <c r="C62" s="38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G62" s="48"/>
       <c r="H62" s="38"/>
     </row>
-    <row r="63" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="64"/>
-      <c r="B63" s="64"/>
+    <row r="63" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="70"/>
+      <c r="B63" s="70"/>
       <c r="C63" s="38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G63" s="48"/>
       <c r="H63" s="38"/>
     </row>
-    <row r="64" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="64"/>
-      <c r="B64" s="64" t="s">
+    <row r="64" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="70"/>
+      <c r="B64" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="D64" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="C64" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="D64" s="39" t="s">
-        <v>183</v>
-      </c>
       <c r="E64" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G64" s="48"/>
       <c r="H64" s="38"/>
     </row>
-    <row r="65" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64"/>
+    <row r="65" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
       <c r="C65" s="38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G65" s="48"/>
       <c r="H65" s="38"/>
     </row>
-    <row r="66" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="64"/>
-      <c r="B66" s="64"/>
+    <row r="66" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
       <c r="C66" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D66" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G66" s="48"/>
       <c r="H66" s="38"/>
     </row>
-    <row r="67" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="64"/>
-      <c r="B67" s="64"/>
+    <row r="67" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
       <c r="C67" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D67" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G67" s="48"/>
       <c r="H67" s="38"/>
     </row>
-    <row r="68" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="64"/>
-      <c r="B68" s="64" t="s">
+    <row r="68" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="70"/>
+      <c r="B68" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="D68" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="C68" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="D68" s="39" t="s">
-        <v>188</v>
-      </c>
       <c r="E68" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G68" s="48"/>
       <c r="H68" s="38"/>
     </row>
-    <row r="69" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64"/>
+    <row r="69" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
       <c r="C69" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="D69" s="39" t="s">
-        <v>189</v>
+        <v>341</v>
+      </c>
+      <c r="D69" s="77" t="s">
+        <v>188</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G69" s="48"/>
       <c r="H69" s="38"/>
-    </row>
-    <row r="70" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="64"/>
-      <c r="B70" s="64"/>
+      <c r="I69" s="69" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
       <c r="C70" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="D70" s="39" t="s">
-        <v>190</v>
+        <v>342</v>
+      </c>
+      <c r="D70" s="77" t="s">
+        <v>189</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G70" s="48"/>
       <c r="H70" s="38"/>
-    </row>
-    <row r="71" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="64" t="s">
+      <c r="I70" s="69"/>
+    </row>
+    <row r="71" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="64" t="s">
+      <c r="C71" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="D71" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="C71" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="D71" s="39" t="s">
-        <v>193</v>
-      </c>
       <c r="E71" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G71" s="48"/>
       <c r="H71" s="38"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="64"/>
-      <c r="B72" s="64"/>
+      <c r="I71" s="69"/>
+    </row>
+    <row r="72" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="70"/>
+      <c r="B72" s="70"/>
       <c r="C72" s="38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G72" s="48"/>
       <c r="H72" s="38"/>
-    </row>
-    <row r="73" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="64"/>
-      <c r="B73" s="64"/>
+      <c r="I72" s="69"/>
+    </row>
+    <row r="73" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
       <c r="C73" s="38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D73" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E73" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G73" s="48"/>
       <c r="H73" s="38"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="64"/>
-      <c r="B74" s="64"/>
+      <c r="I73" s="69"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
       <c r="C74" s="38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G74" s="48"/>
       <c r="H74" s="38"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="64"/>
-      <c r="B75" s="64" t="s">
+      <c r="I74" s="69"/>
+    </row>
+    <row r="75" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="70"/>
+      <c r="B75" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="D75" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C75" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="D75" s="39" t="s">
-        <v>197</v>
-      </c>
       <c r="E75" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G75" s="48"/>
       <c r="H75" s="38"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="64"/>
-      <c r="B76" s="64"/>
+      <c r="I75" s="69"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
       <c r="C76" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G76" s="48"/>
       <c r="H76" s="38"/>
-    </row>
-    <row r="77" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="64"/>
-      <c r="B77" s="64"/>
+      <c r="I76" s="69"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="70"/>
+      <c r="B77" s="70"/>
       <c r="C77" s="38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D77" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E77" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G77" s="48"/>
       <c r="H77" s="38"/>
-    </row>
-    <row r="78" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="64"/>
-      <c r="B78" s="64"/>
+      <c r="I77" s="69"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="70"/>
+      <c r="B78" s="70"/>
       <c r="C78" s="38" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G78" s="48"/>
       <c r="H78" s="38"/>
-    </row>
-    <row r="79" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="64"/>
-      <c r="B79" s="64"/>
+      <c r="I78" s="69"/>
+    </row>
+    <row r="79" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="70"/>
+      <c r="B79" s="70"/>
       <c r="C79" s="38"/>
       <c r="D79" s="39" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E79" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G79" s="48"/>
       <c r="H79" s="38"/>
-    </row>
-    <row r="80" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="64"/>
-      <c r="B80" s="64"/>
+      <c r="I79" s="69"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="70"/>
+      <c r="B80" s="70"/>
       <c r="C80" s="38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D80" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E80" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G80" s="48"/>
       <c r="H80" s="38"/>
-    </row>
-    <row r="81" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="64"/>
-      <c r="B81" s="64"/>
+      <c r="I80" s="69"/>
+    </row>
+    <row r="81" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="70"/>
+      <c r="B81" s="70"/>
       <c r="C81" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G81" s="48"/>
       <c r="H81" s="38"/>
-    </row>
-    <row r="82" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="64"/>
-      <c r="B82" s="64"/>
+      <c r="I81" s="69"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="70"/>
+      <c r="B82" s="70"/>
       <c r="C82" s="38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D82" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G82" s="48"/>
       <c r="H82" s="38"/>
-    </row>
-    <row r="83" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="64"/>
-      <c r="B83" s="64"/>
+      <c r="I82" s="69"/>
+    </row>
+    <row r="83" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="70"/>
+      <c r="B83" s="70"/>
       <c r="C83" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D83" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G83" s="48"/>
       <c r="H83" s="38"/>
-    </row>
-    <row r="84" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="64"/>
-      <c r="B84" s="64"/>
+      <c r="I83" s="69"/>
+    </row>
+    <row r="84" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="70"/>
+      <c r="B84" s="70"/>
       <c r="C84" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D84" s="39" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G84" s="48"/>
       <c r="H84" s="38"/>
-    </row>
-    <row r="85" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="64"/>
-      <c r="B85" s="64"/>
+      <c r="I84" s="69"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="70"/>
+      <c r="B85" s="70"/>
       <c r="C85" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G85" s="48"/>
       <c r="H85" s="38"/>
-    </row>
-    <row r="86" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="64"/>
-      <c r="B86" s="64"/>
+      <c r="I85" s="69"/>
+    </row>
+    <row r="86" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="70"/>
+      <c r="B86" s="70"/>
       <c r="C86" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="D86" s="39" t="s">
-        <v>205</v>
+        <v>389</v>
+      </c>
+      <c r="D86" s="77" t="s">
+        <v>204</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G86" s="48"/>
       <c r="H86" s="38"/>
-    </row>
-    <row r="87" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="64"/>
-      <c r="B87" s="64"/>
+      <c r="I86" s="69"/>
+    </row>
+    <row r="87" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="70"/>
+      <c r="B87" s="70"/>
       <c r="C87" s="41" t="s">
-        <v>391</v>
-      </c>
-      <c r="D87" s="39" t="s">
-        <v>206</v>
+        <v>390</v>
+      </c>
+      <c r="D87" s="77" t="s">
+        <v>205</v>
       </c>
       <c r="E87" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G87" s="48"/>
       <c r="H87" s="38"/>
-    </row>
-    <row r="88" spans="1:8" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="64"/>
+      <c r="I87" s="69"/>
+    </row>
+    <row r="88" spans="1:9" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="70"/>
       <c r="B88" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="D88" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="E88" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F88" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="G88" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="H88" s="40"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="70"/>
+      <c r="B89" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="D88" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="E88" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F88" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="G88" s="51" t="s">
-        <v>463</v>
-      </c>
-      <c r="H88" s="40"/>
-    </row>
-    <row r="89" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="64"/>
-      <c r="B89" s="64" t="s">
+      <c r="D89" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="D89" s="39" t="s">
-        <v>210</v>
-      </c>
       <c r="E89" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G89" s="48"/>
       <c r="H89" s="38"/>
     </row>
-    <row r="90" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="64"/>
-      <c r="B90" s="64"/>
+    <row r="90" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="70"/>
+      <c r="B90" s="70"/>
       <c r="C90" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D90" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E90" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G90" s="48"/>
       <c r="H90" s="38"/>
     </row>
-    <row r="91" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="64"/>
-      <c r="B91" s="64" t="s">
+    <row r="91" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="70"/>
+      <c r="B91" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="D91" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="E91" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F91" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="G91" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="H91" s="38"/>
+    </row>
+    <row r="92" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="70"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="D91" s="39" t="s">
+      <c r="D92" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="E91" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F91" s="40" t="s">
+      <c r="E92" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F92" s="38" t="s">
         <v>388</v>
-      </c>
-      <c r="G91" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="H91" s="38"/>
-    </row>
-    <row r="92" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="64"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="D92" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="E92" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F92" s="38" t="s">
-        <v>389</v>
       </c>
       <c r="G92" s="48"/>
       <c r="H92" s="38"/>
-    </row>
-    <row r="93" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="64"/>
-      <c r="B93" s="64"/>
+      <c r="I92" s="58" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="70"/>
+      <c r="B93" s="70"/>
       <c r="C93" s="38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D93" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G93" s="48"/>
       <c r="H93" s="38"/>
-    </row>
-    <row r="94" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="64"/>
-      <c r="B94" s="64"/>
+      <c r="I93" s="58" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="70"/>
+      <c r="B94" s="70"/>
       <c r="C94" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="D94" s="39" t="s">
-        <v>434</v>
+        <v>461</v>
+      </c>
+      <c r="D94" s="77" t="s">
+        <v>433</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="G94" s="48"/>
+        <v>388</v>
+      </c>
+      <c r="G94" s="49" t="s">
+        <v>493</v>
+      </c>
       <c r="H94" s="38"/>
-    </row>
-    <row r="95" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="64" t="s">
+      <c r="I94" s="57" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="B95" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="C95" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="D95" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="C95" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="D95" s="39" t="s">
-        <v>218</v>
-      </c>
       <c r="E95" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F95" s="40">
         <v>0.5</v>
@@ -6594,19 +6784,19 @@
       <c r="G95" s="53"/>
       <c r="H95" s="40"/>
     </row>
-    <row r="96" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="64"/>
+    <row r="96" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="70"/>
       <c r="B96" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="D96" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="C96" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="D96" s="39" t="s">
-        <v>220</v>
-      </c>
       <c r="E96" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F96" s="40">
         <v>0.5</v>
@@ -6614,19 +6804,19 @@
       <c r="G96" s="53"/>
       <c r="H96" s="40"/>
     </row>
-    <row r="97" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="64"/>
+    <row r="97" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="70"/>
       <c r="B97" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C97" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="D97" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="C97" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="D97" s="39" t="s">
-        <v>222</v>
-      </c>
       <c r="E97" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F97" s="40">
         <v>0.5</v>
@@ -6634,19 +6824,19 @@
       <c r="G97" s="53"/>
       <c r="H97" s="40"/>
     </row>
-    <row r="98" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="64"/>
+    <row r="98" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="70"/>
       <c r="B98" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="D98" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="C98" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="D98" s="39" t="s">
-        <v>224</v>
-      </c>
       <c r="E98" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F98" s="40">
         <v>0.5</v>
@@ -6654,576 +6844,606 @@
       <c r="G98" s="53"/>
       <c r="H98" s="40"/>
     </row>
-    <row r="99" spans="1:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="64" t="s">
+    <row r="99" spans="1:9" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="B99" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="B99" s="64" t="s">
+      <c r="C99" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="D99" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="C99" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="D99" s="39" t="s">
-        <v>227</v>
-      </c>
       <c r="E99" s="39" t="s">
-        <v>276</v>
+        <v>485</v>
       </c>
       <c r="F99" s="42">
         <v>0.5</v>
       </c>
       <c r="G99" s="48" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H99" s="38"/>
-    </row>
-    <row r="100" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="64"/>
-      <c r="B100" s="64"/>
+      <c r="I99" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="70"/>
+      <c r="B100" s="70"/>
       <c r="C100" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D100" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F100" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G100" s="48"/>
       <c r="H100" s="38"/>
     </row>
-    <row r="101" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="64" t="s">
+    <row r="101" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="B101" s="64" t="s">
+      <c r="C101" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="D101" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="C101" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="D101" s="39" t="s">
-        <v>231</v>
-      </c>
       <c r="E101" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F101" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G101" s="48"/>
       <c r="H101" s="38"/>
     </row>
-    <row r="102" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="64"/>
-      <c r="B102" s="64"/>
+    <row r="102" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="70"/>
+      <c r="B102" s="70"/>
       <c r="C102" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D102" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F102" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G102" s="48"/>
       <c r="H102" s="38"/>
     </row>
-    <row r="103" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="64"/>
+    <row r="103" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="70"/>
       <c r="B103" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="D103" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C103" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="D103" s="39" t="s">
-        <v>234</v>
-      </c>
       <c r="E103" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F103" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G103" s="48"/>
       <c r="H103" s="38"/>
     </row>
-    <row r="104" spans="1:8" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="64"/>
-      <c r="B104" s="66" t="s">
+    <row r="104" spans="1:9" ht="24" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="70"/>
+      <c r="B104" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="C104" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="C104" s="38" t="s">
-        <v>394</v>
-      </c>
       <c r="D104" s="39" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E104" s="39"/>
       <c r="F104" s="38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G104" s="49" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H104" s="38"/>
     </row>
-    <row r="105" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="64"/>
-      <c r="B105" s="67"/>
+    <row r="105" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="70"/>
+      <c r="B105" s="75"/>
       <c r="C105" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D105" s="43" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E105" s="39"/>
       <c r="F105" s="38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G105" s="48"/>
       <c r="H105" s="38"/>
     </row>
-    <row r="106" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="64"/>
-      <c r="B106" s="68"/>
+    <row r="106" spans="1:9" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="70"/>
+      <c r="B106" s="76"/>
       <c r="C106" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E106" s="44"/>
       <c r="F106" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="G106" s="48"/>
+        <v>388</v>
+      </c>
+      <c r="G106" s="49" t="s">
+        <v>486</v>
+      </c>
       <c r="H106" s="38"/>
     </row>
-    <row r="107" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="64" t="s">
+    <row r="107" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="B107" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="B107" s="38" t="s">
+      <c r="C107" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="D107" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C107" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="D107" s="39" t="s">
-        <v>237</v>
-      </c>
       <c r="E107" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F107" s="40">
         <v>0.8</v>
       </c>
       <c r="G107" s="49" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H107" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="64"/>
+        <v>470</v>
+      </c>
+      <c r="I107" s="59" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="70"/>
       <c r="B108" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="D108" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="C108" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="D108" s="39" t="s">
-        <v>239</v>
-      </c>
       <c r="E108" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F108" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G108" s="48"/>
       <c r="H108" s="38"/>
     </row>
-    <row r="109" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="64"/>
-      <c r="B109" s="64" t="s">
+    <row r="109" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="70"/>
+      <c r="B109" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="D109" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="D109" s="39" t="s">
-        <v>241</v>
-      </c>
       <c r="E109" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F109" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G109" s="48"/>
       <c r="H109" s="38"/>
     </row>
-    <row r="110" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="64"/>
-      <c r="B110" s="64"/>
+    <row r="110" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
       <c r="C110" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D110" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E110" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F110" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G110" s="48"/>
       <c r="H110" s="38"/>
     </row>
-    <row r="111" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="64"/>
-      <c r="B111" s="64"/>
+    <row r="111" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
       <c r="C111" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D111" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E111" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F111" s="40">
         <v>0.8</v>
       </c>
       <c r="G111" s="49" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H111" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="64"/>
-      <c r="B112" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="I111" s="59" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="70"/>
+      <c r="B112" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="D112" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="D112" s="39" t="s">
-        <v>245</v>
-      </c>
       <c r="E112" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F112" s="40">
         <v>0.8</v>
       </c>
       <c r="G112" s="49" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H112" s="39"/>
-    </row>
-    <row r="113" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="64"/>
-      <c r="B113" s="64"/>
+      <c r="I112" s="69" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="70"/>
+      <c r="B113" s="70"/>
       <c r="C113" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D113" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E113" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F113" s="40">
         <v>0.8</v>
       </c>
       <c r="G113" s="47"/>
       <c r="H113" s="39"/>
-    </row>
-    <row r="114" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="64"/>
-      <c r="B114" s="64"/>
+      <c r="I113" s="69"/>
+    </row>
+    <row r="114" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="70"/>
+      <c r="B114" s="70"/>
       <c r="C114" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D114" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E114" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F114" s="40">
         <v>0.8</v>
       </c>
       <c r="G114" s="48"/>
       <c r="H114" s="39"/>
-    </row>
-    <row r="115" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
+      <c r="I114" s="69"/>
+    </row>
+    <row r="115" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="70"/>
+      <c r="B115" s="70"/>
       <c r="C115" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D115" s="39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F115" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G115" s="48"/>
       <c r="H115" s="38"/>
-    </row>
-    <row r="116" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
+      <c r="I115" s="69"/>
+    </row>
+    <row r="116" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="70"/>
+      <c r="B116" s="70"/>
       <c r="C116" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D116" s="39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F116" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G116" s="49"/>
       <c r="H116" s="39"/>
-    </row>
-    <row r="117" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="64"/>
-      <c r="B117" s="64" t="s">
+      <c r="I116" s="69"/>
+    </row>
+    <row r="117" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="70"/>
+      <c r="B117" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="D117" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="C117" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="D117" s="39" t="s">
-        <v>251</v>
-      </c>
       <c r="E117" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F117" s="40">
-        <v>0.8</v>
+        <v>275</v>
+      </c>
+      <c r="F117" s="40" t="s">
+        <v>387</v>
       </c>
       <c r="G117" s="48"/>
       <c r="H117" s="39"/>
     </row>
-    <row r="118" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="64"/>
-      <c r="B118" s="64"/>
+    <row r="118" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="70"/>
+      <c r="B118" s="70"/>
       <c r="C118" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D118" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E118" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F118" s="40">
-        <v>0.8</v>
+        <v>275</v>
+      </c>
+      <c r="F118" s="40" t="s">
+        <v>387</v>
       </c>
       <c r="G118" s="48"/>
       <c r="H118" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="64"/>
-      <c r="B119" s="64"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="70"/>
+      <c r="B119" s="70"/>
       <c r="C119" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D119" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E119" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F119" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G119" s="48"/>
       <c r="H119" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="64"/>
-      <c r="B120" s="64"/>
+        <v>470</v>
+      </c>
+      <c r="I119" s="69" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="70"/>
+      <c r="B120" s="70"/>
       <c r="C120" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D120" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E120" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F120" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G120" s="48"/>
       <c r="H120" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="64"/>
-      <c r="B121" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="I120" s="69"/>
+    </row>
+    <row r="121" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="70"/>
+      <c r="B121" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="D121" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="C121" s="38" t="s">
+      <c r="E121" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F121" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="G121" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="H121" s="39" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="70"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="D121" s="39" t="s">
+      <c r="D122" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="E121" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F121" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="G121" s="48"/>
-      <c r="H121" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="64"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="D122" s="39" t="s">
-        <v>257</v>
-      </c>
       <c r="E122" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F122" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G122" s="48"/>
       <c r="H122" s="38"/>
     </row>
-    <row r="123" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="64" t="s">
+    <row r="123" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="B123" s="38" t="s">
+      <c r="C123" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="D123" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="C123" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="D123" s="39" t="s">
-        <v>260</v>
-      </c>
       <c r="E123" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F123" s="40">
         <v>0.3</v>
       </c>
       <c r="G123" s="48"/>
       <c r="H123" s="40"/>
-    </row>
-    <row r="124" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="64"/>
+      <c r="I123" s="69" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="70"/>
       <c r="B124" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C124" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="D124" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="C124" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="D124" s="39" t="s">
-        <v>262</v>
-      </c>
       <c r="E124" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F124" s="40">
         <v>0.3</v>
       </c>
       <c r="G124" s="48"/>
       <c r="H124" s="40"/>
-    </row>
-    <row r="125" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="64"/>
+      <c r="I124" s="69"/>
+    </row>
+    <row r="125" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="70"/>
       <c r="B125" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="D125" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="C125" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="D125" s="39" t="s">
-        <v>264</v>
-      </c>
       <c r="E125" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F125" s="40">
         <v>0.3</v>
       </c>
       <c r="G125" s="48"/>
       <c r="H125" s="40"/>
-    </row>
-    <row r="126" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="64"/>
+      <c r="I125" s="69"/>
+    </row>
+    <row r="126" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="70"/>
       <c r="B126" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="D126" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="C126" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="D126" s="39" t="s">
-        <v>266</v>
-      </c>
       <c r="E126" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F126" s="40">
         <v>0.3</v>
       </c>
       <c r="G126" s="48"/>
       <c r="H126" s="40"/>
-    </row>
-    <row r="127" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A128" s="65" t="s">
-        <v>475</v>
-      </c>
-      <c r="B128" s="65"/>
+      <c r="I126" s="69"/>
+    </row>
+    <row r="127" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A128" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="B128" s="73"/>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128" s="54" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E128" s="54" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
@@ -7231,18 +7451,18 @@
         <v>2</v>
       </c>
       <c r="D129" s="54" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
@@ -7250,7 +7470,7 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
@@ -7258,7 +7478,7 @@
         <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
@@ -7266,7 +7486,7 @@
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
@@ -7274,7 +7494,7 @@
         <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
@@ -7282,7 +7502,7 @@
         <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
@@ -7290,7 +7510,7 @@
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
@@ -7298,15 +7518,24 @@
         <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F139" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M126"/>
-  <mergeCells count="40">
+  <autoFilter ref="A1:M126">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="30%"/>
+        <filter val="50%"/>
+        <filter val="80%"/>
+        <filter val="未完成"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="45">
     <mergeCell ref="A128:B128"/>
     <mergeCell ref="A123:A126"/>
     <mergeCell ref="A99:A100"/>
@@ -7347,6 +7576,11 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B14"/>
+    <mergeCell ref="I27:I33"/>
+    <mergeCell ref="I69:I87"/>
+    <mergeCell ref="I112:I116"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="I123:I126"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/机队管理系统剩余工作.xlsx
+++ b/机队管理系统剩余工作.xlsx
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="503">
   <si>
     <t>数据是否重新加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -978,9 +978,6 @@
     <t>维护供应商类别</t>
   </si>
   <si>
-    <t>维护供应商可供物料</t>
-  </si>
-  <si>
     <t>维护联系人</t>
   </si>
   <si>
@@ -2789,6 +2786,10 @@
   </si>
   <si>
     <t>匹配计划飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护供应商可供物料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3485,6 +3486,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3508,20 +3512,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3532,8 +3527,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4071,13 +4072,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4537,41 +4538,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>68</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="64"/>
+      <c r="C3" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="D3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="63"/>
-      <c r="C3" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="D3" t="s">
-        <v>267</v>
-      </c>
-    </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="64"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4584,12 +4585,12 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4637,7 +4638,7 @@
       <c r="B3" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="66" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4645,7 +4646,7 @@
       <c r="B4" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="69"/>
     </row>
     <row r="5" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
@@ -4659,7 +4660,7 @@
       <c r="B6" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="66" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4667,19 +4668,19 @@
       <c r="B7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="67"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="67"/>
     </row>
     <row r="9" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="68"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" s="24" t="s">
@@ -4734,8 +4735,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4759,200 +4760,200 @@
         <v>98</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>273</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>455</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>274</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>102</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G2" s="48"/>
       <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H3" s="38"/>
       <c r="L3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F4" s="40">
         <v>0.8</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H4" s="38"/>
       <c r="L4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>106</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="38"/>
       <c r="L5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>107</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="38"/>
       <c r="L6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>108</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>109</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G8" s="48"/>
       <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="71" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="40">
         <v>0.3</v>
@@ -4960,23 +4961,23 @@
       <c r="G9" s="48"/>
       <c r="H9" s="38"/>
       <c r="L9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F10" s="40">
         <v>0.3</v>
@@ -4984,305 +4985,305 @@
       <c r="G10" s="48"/>
       <c r="H10" s="38"/>
       <c r="K10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="76"/>
+      <c r="B11" s="71" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>114</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G11" s="48"/>
       <c r="H11" s="38"/>
       <c r="L11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>115</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G12" s="48"/>
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F13" s="40">
         <v>0.8</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H13" s="38"/>
       <c r="L13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
-      <c r="B14" s="70"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>117</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="38"/>
       <c r="K14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L14" t="s">
+        <v>408</v>
+      </c>
+      <c r="M14" t="s">
         <v>409</v>
       </c>
-      <c r="M14" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="15" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="71" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>120</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G15" s="48"/>
       <c r="H15" s="38"/>
       <c r="L15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>121</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G16" s="48"/>
       <c r="H16" s="38"/>
       <c r="L16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="36" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="70"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>123</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G17" s="48"/>
       <c r="H17" s="38"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="L17" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="L17" s="35" t="s">
-        <v>413</v>
-      </c>
       <c r="M17" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="71" t="s">
         <v>125</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>126</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G18" s="48"/>
       <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>127</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="38"/>
       <c r="L19" t="s">
+        <v>421</v>
+      </c>
+      <c r="M19" t="s">
         <v>422</v>
       </c>
-      <c r="M19" t="s">
-        <v>423</v>
-      </c>
     </row>
     <row r="20" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>128</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G20" s="48"/>
       <c r="H20" s="38"/>
       <c r="K20" t="s">
+        <v>414</v>
+      </c>
+      <c r="L20" t="s">
         <v>415</v>
       </c>
-      <c r="L20" t="s">
-        <v>416</v>
-      </c>
       <c r="M20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="70"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="38" t="s">
         <v>129</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>130</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="38"/>
       <c r="L21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="71" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>133</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F22" s="40">
         <v>0.8</v>
@@ -5290,1493 +5291,1493 @@
       <c r="G22" s="50"/>
       <c r="H22" s="40"/>
       <c r="L22" t="s">
+        <v>417</v>
+      </c>
+      <c r="M22" t="s">
         <v>418</v>
       </c>
-      <c r="M22" t="s">
-        <v>419</v>
-      </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>134</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H23" s="38"/>
       <c r="L23" t="s">
+        <v>423</v>
+      </c>
+      <c r="M23" t="s">
         <v>424</v>
       </c>
-      <c r="M23" t="s">
-        <v>425</v>
-      </c>
     </row>
     <row r="24" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="71" t="s">
         <v>136</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>137</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L24" t="s">
+        <v>419</v>
+      </c>
+      <c r="M24" t="s">
         <v>420</v>
       </c>
-      <c r="M24" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="25" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>138</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>139</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G26" s="48"/>
       <c r="H26" s="38"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
+    <row r="27" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>140</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="F27" s="40">
-        <v>0.8</v>
+        <v>274</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>386</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>470</v>
-      </c>
-      <c r="I27" s="69" t="s">
-        <v>489</v>
+        <v>469</v>
+      </c>
+      <c r="I27" s="77" t="s">
+        <v>488</v>
       </c>
       <c r="K27" t="s">
+        <v>425</v>
+      </c>
+      <c r="L27" t="s">
         <v>426</v>
       </c>
-      <c r="L27" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>141</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="F28" s="40">
-        <v>0.8</v>
+        <v>274</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>386</v>
       </c>
       <c r="G28" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>470</v>
-      </c>
-      <c r="I28" s="69"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
+        <v>469</v>
+      </c>
+      <c r="I28" s="77"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>142</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="F29" s="40">
-        <v>0.8</v>
+        <v>274</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>386</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="I29" s="69"/>
+        <v>469</v>
+      </c>
+      <c r="I29" s="77"/>
       <c r="K29" t="s">
+        <v>427</v>
+      </c>
+      <c r="L29" t="s">
         <v>428</v>
       </c>
-      <c r="L29" t="s">
-        <v>429</v>
-      </c>
     </row>
     <row r="30" spans="1:13" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>143</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G30" s="51"/>
       <c r="H30" s="38"/>
-      <c r="I30" s="69"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70" t="s">
+      <c r="I30" s="77"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="71"/>
+      <c r="B31" s="71" t="s">
         <v>144</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>145</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="F31" s="40">
-        <v>0.8</v>
+        <v>274</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>386</v>
       </c>
       <c r="G31" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="I31" s="69"/>
+        <v>469</v>
+      </c>
+      <c r="I31" s="77"/>
       <c r="L31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
+    <row r="32" spans="1:13" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>146</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="F32" s="40">
-        <v>0.8</v>
+        <v>274</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>386</v>
       </c>
       <c r="G32" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="I32" s="69"/>
+        <v>469</v>
+      </c>
+      <c r="I32" s="77"/>
       <c r="L32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M32">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>147</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F33" s="40">
         <v>0.8</v>
       </c>
       <c r="G33" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H33" s="42" t="s">
-        <v>470</v>
-      </c>
-      <c r="I33" s="69"/>
+        <v>469</v>
+      </c>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" ht="24" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="70"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="38" t="s">
         <v>148</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>149</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G34" s="49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70" t="s">
+      <c r="A35" s="71"/>
+      <c r="B35" s="71" t="s">
         <v>150</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>151</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G35" s="48"/>
       <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>152</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F36" s="40">
         <v>0.8</v>
       </c>
       <c r="G36" s="48"/>
       <c r="H36" s="39" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I36" s="56">
         <v>41776</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>153</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G37" s="48"/>
       <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>154</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G38" s="48"/>
       <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:9" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70" t="s">
+      <c r="A39" s="71"/>
+      <c r="B39" s="71" t="s">
         <v>155</v>
       </c>
       <c r="C39" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="38" t="s">
         <v>313</v>
-      </c>
-      <c r="D39" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>441</v>
-      </c>
-      <c r="H39" s="38"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="38" t="s">
-        <v>314</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>157</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G40" s="48"/>
       <c r="H40" s="39"/>
     </row>
     <row r="41" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="D41" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="D41" s="39" t="s">
-        <v>316</v>
-      </c>
       <c r="E41" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F41" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G41" s="48"/>
       <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>158</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G42" s="48"/>
       <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>159</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G43" s="48"/>
       <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>160</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G44" s="48"/>
       <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>161</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G45" s="48"/>
       <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
       <c r="C46" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="D46" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="D46" s="39" t="s">
-        <v>443</v>
-      </c>
       <c r="E46" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G46" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="H46" s="39"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="71"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="D47" s="46" t="s">
         <v>458</v>
       </c>
-      <c r="H46" s="39"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="70"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="45" t="s">
-        <v>446</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>459</v>
-      </c>
       <c r="E47" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F47" s="46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G47" s="52"/>
       <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="71" t="s">
         <v>163</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>164</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G48" s="49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>165</v>
+        <v>502</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F49" s="40">
         <v>0.8</v>
       </c>
       <c r="G49" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H49" s="38"/>
       <c r="I49" s="57" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G50" s="48"/>
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G51" s="48"/>
       <c r="H51" s="38"/>
     </row>
     <row r="52" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G52" s="48"/>
       <c r="H52" s="38"/>
     </row>
     <row r="53" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="70"/>
-      <c r="B53" s="70"/>
+      <c r="A53" s="71"/>
+      <c r="B53" s="71"/>
       <c r="C53" s="38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G53" s="48"/>
       <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70" t="s">
+      <c r="A54" s="71"/>
+      <c r="B54" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>171</v>
-      </c>
       <c r="E54" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G54" s="48"/>
       <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="70"/>
-      <c r="B55" s="70"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G55" s="48"/>
       <c r="H55" s="38"/>
     </row>
     <row r="56" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G56" s="48"/>
       <c r="H56" s="38"/>
     </row>
     <row r="57" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="70"/>
-      <c r="B57" s="70"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G57" s="48"/>
       <c r="H57" s="38"/>
     </row>
     <row r="58" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G58" s="48"/>
       <c r="H58" s="38"/>
     </row>
     <row r="59" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="71"/>
       <c r="C59" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E59" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F59" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G59" s="52"/>
       <c r="H59" s="38"/>
       <c r="I59" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70" t="s">
+      <c r="A60" s="71"/>
+      <c r="B60" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D60" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>177</v>
-      </c>
       <c r="E60" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G60" s="48"/>
       <c r="H60" s="38"/>
     </row>
     <row r="61" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="71"/>
       <c r="C61" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G61" s="48"/>
       <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="71"/>
       <c r="C62" s="38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G62" s="48"/>
       <c r="H62" s="38"/>
     </row>
     <row r="63" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="71"/>
       <c r="C63" s="38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G63" s="48"/>
       <c r="H63" s="38"/>
     </row>
     <row r="64" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70" t="s">
+      <c r="A64" s="71"/>
+      <c r="B64" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="D64" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="C64" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="D64" s="39" t="s">
-        <v>182</v>
-      </c>
       <c r="E64" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G64" s="48"/>
       <c r="H64" s="38"/>
     </row>
     <row r="65" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
+      <c r="A65" s="71"/>
+      <c r="B65" s="71"/>
       <c r="C65" s="38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G65" s="48"/>
       <c r="H65" s="38"/>
     </row>
     <row r="66" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="71"/>
       <c r="C66" s="38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D66" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G66" s="48"/>
       <c r="H66" s="38"/>
     </row>
     <row r="67" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="71"/>
       <c r="C67" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D67" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G67" s="48"/>
       <c r="H67" s="38"/>
     </row>
     <row r="68" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70" t="s">
+      <c r="A68" s="71"/>
+      <c r="B68" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D68" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="C68" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="D68" s="39" t="s">
-        <v>187</v>
-      </c>
       <c r="E68" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G68" s="48"/>
       <c r="H68" s="38"/>
     </row>
     <row r="69" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
+      <c r="A69" s="71"/>
+      <c r="B69" s="71"/>
       <c r="C69" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="D69" s="77" t="s">
-        <v>188</v>
+        <v>340</v>
+      </c>
+      <c r="D69" s="60" t="s">
+        <v>187</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G69" s="48"/>
       <c r="H69" s="38"/>
-      <c r="I69" s="69" t="s">
-        <v>492</v>
+      <c r="I69" s="77" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="D70" s="77" t="s">
-        <v>189</v>
+        <v>341</v>
+      </c>
+      <c r="D70" s="60" t="s">
+        <v>188</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G70" s="48"/>
       <c r="H70" s="38"/>
-      <c r="I70" s="69"/>
+      <c r="I70" s="77"/>
     </row>
     <row r="71" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="B71" s="70" t="s">
+      <c r="C71" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D71" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C71" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="D71" s="39" t="s">
-        <v>192</v>
-      </c>
       <c r="E71" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G71" s="48"/>
       <c r="H71" s="38"/>
-      <c r="I71" s="69"/>
+      <c r="I71" s="77"/>
     </row>
     <row r="72" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="70"/>
-      <c r="B72" s="70"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="71"/>
       <c r="C72" s="38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G72" s="48"/>
       <c r="H72" s="38"/>
-      <c r="I72" s="69"/>
+      <c r="I72" s="77"/>
     </row>
     <row r="73" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
+      <c r="A73" s="71"/>
+      <c r="B73" s="71"/>
       <c r="C73" s="38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D73" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E73" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G73" s="48"/>
       <c r="H73" s="38"/>
-      <c r="I73" s="69"/>
+      <c r="I73" s="77"/>
     </row>
     <row r="74" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="71"/>
       <c r="C74" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G74" s="48"/>
       <c r="H74" s="38"/>
-      <c r="I74" s="69"/>
+      <c r="I74" s="77"/>
     </row>
     <row r="75" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70" t="s">
+      <c r="A75" s="71"/>
+      <c r="B75" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="D75" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="C75" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="D75" s="39" t="s">
-        <v>196</v>
-      </c>
       <c r="E75" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G75" s="48"/>
       <c r="H75" s="38"/>
-      <c r="I75" s="69"/>
+      <c r="I75" s="77"/>
     </row>
     <row r="76" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G76" s="48"/>
       <c r="H76" s="38"/>
-      <c r="I76" s="69"/>
+      <c r="I76" s="77"/>
     </row>
     <row r="77" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
+      <c r="A77" s="71"/>
+      <c r="B77" s="71"/>
       <c r="C77" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D77" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E77" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G77" s="48"/>
       <c r="H77" s="38"/>
-      <c r="I77" s="69"/>
+      <c r="I77" s="77"/>
     </row>
     <row r="78" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="70"/>
-      <c r="B78" s="70"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="71"/>
       <c r="C78" s="38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G78" s="48"/>
       <c r="H78" s="38"/>
-      <c r="I78" s="69"/>
+      <c r="I78" s="77"/>
     </row>
     <row r="79" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="70"/>
-      <c r="B79" s="70"/>
+      <c r="A79" s="71"/>
+      <c r="B79" s="71"/>
       <c r="C79" s="38"/>
       <c r="D79" s="39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E79" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G79" s="48"/>
       <c r="H79" s="38"/>
-      <c r="I79" s="69"/>
+      <c r="I79" s="77"/>
     </row>
     <row r="80" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="70"/>
-      <c r="B80" s="70"/>
+      <c r="A80" s="71"/>
+      <c r="B80" s="71"/>
       <c r="C80" s="38" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D80" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E80" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G80" s="48"/>
       <c r="H80" s="38"/>
-      <c r="I80" s="69"/>
+      <c r="I80" s="77"/>
     </row>
     <row r="81" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="70"/>
-      <c r="B81" s="70"/>
+      <c r="A81" s="71"/>
+      <c r="B81" s="71"/>
       <c r="C81" s="38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G81" s="48"/>
       <c r="H81" s="38"/>
-      <c r="I81" s="69"/>
+      <c r="I81" s="77"/>
     </row>
     <row r="82" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="70"/>
-      <c r="B82" s="70"/>
+      <c r="A82" s="71"/>
+      <c r="B82" s="71"/>
       <c r="C82" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D82" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G82" s="48"/>
       <c r="H82" s="38"/>
-      <c r="I82" s="69"/>
+      <c r="I82" s="77"/>
     </row>
     <row r="83" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="70"/>
-      <c r="B83" s="70"/>
+      <c r="A83" s="71"/>
+      <c r="B83" s="71"/>
       <c r="C83" s="38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D83" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G83" s="48"/>
       <c r="H83" s="38"/>
-      <c r="I83" s="69"/>
+      <c r="I83" s="77"/>
     </row>
     <row r="84" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="70"/>
-      <c r="B84" s="70"/>
+      <c r="A84" s="71"/>
+      <c r="B84" s="71"/>
       <c r="C84" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D84" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G84" s="48"/>
       <c r="H84" s="38"/>
-      <c r="I84" s="69"/>
+      <c r="I84" s="77"/>
     </row>
     <row r="85" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="70"/>
-      <c r="B85" s="70"/>
+      <c r="A85" s="71"/>
+      <c r="B85" s="71"/>
       <c r="C85" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G85" s="48"/>
       <c r="H85" s="38"/>
-      <c r="I85" s="69"/>
+      <c r="I85" s="77"/>
     </row>
     <row r="86" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="70"/>
-      <c r="B86" s="70"/>
+      <c r="A86" s="71"/>
+      <c r="B86" s="71"/>
       <c r="C86" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="D86" s="77" t="s">
-        <v>204</v>
+        <v>388</v>
+      </c>
+      <c r="D86" s="60" t="s">
+        <v>203</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G86" s="48"/>
       <c r="H86" s="38"/>
-      <c r="I86" s="69"/>
+      <c r="I86" s="77"/>
     </row>
     <row r="87" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
+      <c r="A87" s="71"/>
+      <c r="B87" s="71"/>
       <c r="C87" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="D87" s="77" t="s">
-        <v>205</v>
+        <v>389</v>
+      </c>
+      <c r="D87" s="60" t="s">
+        <v>204</v>
       </c>
       <c r="E87" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G87" s="48"/>
       <c r="H87" s="38"/>
-      <c r="I87" s="69"/>
+      <c r="I87" s="77"/>
     </row>
     <row r="88" spans="1:9" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="70"/>
+      <c r="A88" s="71"/>
       <c r="B88" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D88" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="E88" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="F88" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G88" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="H88" s="40"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="71"/>
+      <c r="B89" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="D88" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="E88" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="F88" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="G88" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="H88" s="40"/>
-    </row>
-    <row r="89" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="70"/>
-      <c r="B89" s="70" t="s">
+      <c r="D89" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="C89" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="D89" s="39" t="s">
-        <v>209</v>
-      </c>
       <c r="E89" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G89" s="48"/>
       <c r="H89" s="38"/>
     </row>
     <row r="90" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="70"/>
-      <c r="B90" s="70"/>
+      <c r="A90" s="71"/>
+      <c r="B90" s="71"/>
       <c r="C90" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D90" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E90" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F90" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G90" s="48"/>
       <c r="H90" s="38"/>
     </row>
     <row r="91" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="70"/>
-      <c r="B91" s="70" t="s">
+      <c r="A91" s="71"/>
+      <c r="B91" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="D91" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="E91" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="F91" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G91" s="49" t="s">
+        <v>450</v>
+      </c>
+      <c r="H91" s="38"/>
+    </row>
+    <row r="92" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="71"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="D91" s="39" t="s">
+      <c r="D92" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="E91" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="F91" s="40" t="s">
+      <c r="E92" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="F92" s="38" t="s">
         <v>387</v>
-      </c>
-      <c r="G91" s="49" t="s">
-        <v>451</v>
-      </c>
-      <c r="H91" s="38"/>
-    </row>
-    <row r="92" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="70"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="D92" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="E92" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="F92" s="38" t="s">
-        <v>388</v>
       </c>
       <c r="G92" s="48"/>
       <c r="H92" s="38"/>
       <c r="I92" s="58" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="70"/>
-      <c r="B93" s="70"/>
+      <c r="A93" s="71"/>
+      <c r="B93" s="71"/>
       <c r="C93" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D93" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G93" s="48"/>
       <c r="H93" s="38"/>
       <c r="I93" s="58" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="70"/>
-      <c r="B94" s="70"/>
+      <c r="A94" s="71"/>
+      <c r="B94" s="71"/>
       <c r="C94" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="D94" s="77" t="s">
-        <v>433</v>
+        <v>460</v>
+      </c>
+      <c r="D94" s="60" t="s">
+        <v>432</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F94" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G94" s="49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H94" s="38"/>
       <c r="I94" s="57" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="70" t="s">
+      <c r="A95" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B95" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="C95" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="D95" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="C95" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="D95" s="39" t="s">
-        <v>217</v>
-      </c>
       <c r="E95" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F95" s="40">
         <v>0.5</v>
@@ -6785,18 +6786,18 @@
       <c r="H95" s="40"/>
     </row>
     <row r="96" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="70"/>
+      <c r="A96" s="71"/>
       <c r="B96" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="D96" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="C96" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="D96" s="39" t="s">
-        <v>219</v>
-      </c>
       <c r="E96" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F96" s="40">
         <v>0.5</v>
@@ -6805,18 +6806,18 @@
       <c r="H96" s="40"/>
     </row>
     <row r="97" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="70"/>
+      <c r="A97" s="71"/>
       <c r="B97" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="D97" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="C97" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="D97" s="39" t="s">
-        <v>221</v>
-      </c>
       <c r="E97" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F97" s="40">
         <v>0.5</v>
@@ -6825,18 +6826,18 @@
       <c r="H97" s="40"/>
     </row>
     <row r="98" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="70"/>
+      <c r="A98" s="71"/>
       <c r="B98" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="D98" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="C98" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="D98" s="39" t="s">
-        <v>223</v>
-      </c>
       <c r="E98" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F98" s="40">
         <v>0.5</v>
@@ -6845,605 +6846,605 @@
       <c r="H98" s="40"/>
     </row>
     <row r="99" spans="1:9" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="B99" s="70" t="s">
+      <c r="C99" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="D99" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C99" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="D99" s="39" t="s">
-        <v>226</v>
-      </c>
       <c r="E99" s="39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F99" s="42">
         <v>0.5</v>
       </c>
       <c r="G99" s="48" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H99" s="38"/>
       <c r="I99" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="70"/>
-      <c r="B100" s="70"/>
+      <c r="A100" s="71"/>
+      <c r="B100" s="71"/>
       <c r="C100" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D100" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F100" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G100" s="48"/>
       <c r="H100" s="38"/>
     </row>
     <row r="101" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="70" t="s">
+      <c r="A101" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="B101" s="70" t="s">
+      <c r="C101" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="D101" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="C101" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="D101" s="39" t="s">
-        <v>230</v>
-      </c>
       <c r="E101" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F101" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G101" s="48"/>
       <c r="H101" s="38"/>
     </row>
     <row r="102" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="70"/>
-      <c r="B102" s="70"/>
+      <c r="A102" s="71"/>
+      <c r="B102" s="71"/>
       <c r="C102" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D102" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F102" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G102" s="48"/>
       <c r="H102" s="38"/>
     </row>
     <row r="103" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="70"/>
+      <c r="A103" s="71"/>
       <c r="B103" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C103" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="D103" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="C103" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="D103" s="39" t="s">
-        <v>233</v>
-      </c>
       <c r="E103" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F103" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G103" s="48"/>
       <c r="H103" s="38"/>
     </row>
     <row r="104" spans="1:9" ht="24" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="70"/>
-      <c r="B104" s="74" t="s">
+      <c r="A104" s="71"/>
+      <c r="B104" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="C104" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="C104" s="38" t="s">
-        <v>393</v>
-      </c>
       <c r="D104" s="39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E104" s="39"/>
       <c r="F104" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G104" s="49" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H104" s="38"/>
     </row>
     <row r="105" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="70"/>
-      <c r="B105" s="75"/>
+      <c r="A105" s="71"/>
+      <c r="B105" s="73"/>
       <c r="C105" s="41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D105" s="43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E105" s="39"/>
       <c r="F105" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G105" s="48"/>
       <c r="H105" s="38"/>
     </row>
     <row r="106" spans="1:9" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="70"/>
-      <c r="B106" s="76"/>
+      <c r="A106" s="71"/>
+      <c r="B106" s="74"/>
       <c r="C106" s="41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E106" s="44"/>
       <c r="F106" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G106" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H106" s="38"/>
     </row>
     <row r="107" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="70" t="s">
+      <c r="A107" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="B107" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="B107" s="38" t="s">
+      <c r="C107" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="D107" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="C107" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="D107" s="39" t="s">
-        <v>236</v>
-      </c>
       <c r="E107" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F107" s="40">
         <v>0.8</v>
       </c>
       <c r="G107" s="49" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H107" s="39" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I107" s="59" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="70"/>
+      <c r="A108" s="71"/>
       <c r="B108" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="D108" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="D108" s="39" t="s">
-        <v>238</v>
-      </c>
       <c r="E108" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F108" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G108" s="48"/>
       <c r="H108" s="38"/>
     </row>
     <row r="109" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="70"/>
-      <c r="B109" s="70" t="s">
+      <c r="A109" s="71"/>
+      <c r="B109" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="D109" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="C109" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="D109" s="39" t="s">
-        <v>240</v>
-      </c>
       <c r="E109" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F109" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G109" s="48"/>
       <c r="H109" s="38"/>
     </row>
     <row r="110" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="70"/>
-      <c r="B110" s="70"/>
+      <c r="A110" s="71"/>
+      <c r="B110" s="71"/>
       <c r="C110" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D110" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E110" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F110" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G110" s="48"/>
       <c r="H110" s="38"/>
     </row>
     <row r="111" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="70"/>
-      <c r="B111" s="70"/>
+      <c r="A111" s="71"/>
+      <c r="B111" s="71"/>
       <c r="C111" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D111" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E111" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F111" s="40">
         <v>0.8</v>
       </c>
       <c r="G111" s="49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H111" s="39" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I111" s="59" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="70"/>
-      <c r="B112" s="70" t="s">
+      <c r="A112" s="71"/>
+      <c r="B112" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="D112" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="C112" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="D112" s="39" t="s">
-        <v>244</v>
-      </c>
       <c r="E112" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F112" s="40">
         <v>0.8</v>
       </c>
       <c r="G112" s="49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H112" s="39"/>
-      <c r="I112" s="69" t="s">
-        <v>497</v>
+      <c r="I112" s="77" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="70"/>
-      <c r="B113" s="70"/>
+      <c r="A113" s="71"/>
+      <c r="B113" s="71"/>
       <c r="C113" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D113" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E113" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F113" s="40">
         <v>0.8</v>
       </c>
       <c r="G113" s="47"/>
       <c r="H113" s="39"/>
-      <c r="I113" s="69"/>
+      <c r="I113" s="77"/>
     </row>
     <row r="114" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="70"/>
-      <c r="B114" s="70"/>
+      <c r="A114" s="71"/>
+      <c r="B114" s="71"/>
       <c r="C114" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D114" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E114" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F114" s="40">
         <v>0.8</v>
       </c>
       <c r="G114" s="48"/>
       <c r="H114" s="39"/>
-      <c r="I114" s="69"/>
+      <c r="I114" s="77"/>
     </row>
     <row r="115" spans="1:9" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="70"/>
-      <c r="B115" s="70"/>
+      <c r="A115" s="71"/>
+      <c r="B115" s="71"/>
       <c r="C115" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D115" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F115" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G115" s="48"/>
       <c r="H115" s="38"/>
-      <c r="I115" s="69"/>
+      <c r="I115" s="77"/>
     </row>
     <row r="116" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="70"/>
-      <c r="B116" s="70"/>
+      <c r="A116" s="71"/>
+      <c r="B116" s="71"/>
       <c r="C116" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D116" s="39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F116" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G116" s="49"/>
       <c r="H116" s="39"/>
-      <c r="I116" s="69"/>
+      <c r="I116" s="77"/>
     </row>
     <row r="117" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="70"/>
-      <c r="B117" s="70" t="s">
+      <c r="A117" s="71"/>
+      <c r="B117" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="C117" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="D117" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="C117" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="D117" s="39" t="s">
-        <v>250</v>
-      </c>
       <c r="E117" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F117" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G117" s="48"/>
       <c r="H117" s="39"/>
     </row>
     <row r="118" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="70"/>
-      <c r="B118" s="70"/>
+      <c r="A118" s="71"/>
+      <c r="B118" s="71"/>
       <c r="C118" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D118" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E118" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F118" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G118" s="48"/>
       <c r="H118" s="39" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="70"/>
-      <c r="B119" s="70"/>
+      <c r="A119" s="71"/>
+      <c r="B119" s="71"/>
       <c r="C119" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D119" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E119" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F119" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G119" s="48"/>
       <c r="H119" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="I119" s="69" t="s">
-        <v>498</v>
+        <v>469</v>
+      </c>
+      <c r="I119" s="77" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="70"/>
-      <c r="B120" s="70"/>
+      <c r="A120" s="71"/>
+      <c r="B120" s="71"/>
       <c r="C120" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D120" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E120" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F120" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G120" s="48"/>
       <c r="H120" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="I120" s="69"/>
+        <v>469</v>
+      </c>
+      <c r="I120" s="77"/>
     </row>
     <row r="121" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="70"/>
-      <c r="B121" s="70" t="s">
+      <c r="A121" s="71"/>
+      <c r="B121" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="D121" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="C121" s="38" t="s">
+      <c r="E121" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="F121" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="G121" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="H121" s="39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="71"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="D121" s="39" t="s">
+      <c r="D122" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="E121" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="F121" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="G121" s="49" t="s">
-        <v>487</v>
-      </c>
-      <c r="H121" s="39" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="15" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="70"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="D122" s="39" t="s">
-        <v>256</v>
-      </c>
       <c r="E122" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F122" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G122" s="48"/>
       <c r="H122" s="38"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="70" t="s">
+      <c r="A123" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="B123" s="38" t="s">
+      <c r="C123" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="D123" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="C123" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="D123" s="39" t="s">
-        <v>259</v>
-      </c>
       <c r="E123" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F123" s="40">
         <v>0.3</v>
       </c>
       <c r="G123" s="48"/>
       <c r="H123" s="40"/>
-      <c r="I123" s="69" t="s">
-        <v>499</v>
+      <c r="I123" s="77" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="70"/>
+      <c r="A124" s="71"/>
       <c r="B124" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="D124" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="C124" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="D124" s="39" t="s">
-        <v>261</v>
-      </c>
       <c r="E124" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F124" s="40">
         <v>0.3</v>
       </c>
       <c r="G124" s="48"/>
       <c r="H124" s="40"/>
-      <c r="I124" s="69"/>
+      <c r="I124" s="77"/>
     </row>
     <row r="125" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="70"/>
+      <c r="A125" s="71"/>
       <c r="B125" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="D125" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="C125" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="D125" s="39" t="s">
-        <v>263</v>
-      </c>
       <c r="E125" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F125" s="40">
         <v>0.3</v>
       </c>
       <c r="G125" s="48"/>
       <c r="H125" s="40"/>
-      <c r="I125" s="69"/>
+      <c r="I125" s="77"/>
     </row>
     <row r="126" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="70"/>
+      <c r="A126" s="71"/>
       <c r="B126" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="D126" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="C126" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="D126" s="39" t="s">
-        <v>265</v>
-      </c>
       <c r="E126" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F126" s="40">
         <v>0.3</v>
       </c>
       <c r="G126" s="48"/>
       <c r="H126" s="40"/>
-      <c r="I126" s="69"/>
+      <c r="I126" s="77"/>
     </row>
     <row r="127" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A128" s="73" t="s">
-        <v>472</v>
-      </c>
-      <c r="B128" s="73"/>
+      <c r="A128" s="70" t="s">
+        <v>471</v>
+      </c>
+      <c r="B128" s="70"/>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128" s="54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E128" s="54" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
@@ -7451,18 +7452,18 @@
         <v>2</v>
       </c>
       <c r="D129" s="54" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
@@ -7470,7 +7471,7 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
@@ -7478,7 +7479,7 @@
         <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
@@ -7486,7 +7487,7 @@
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
@@ -7494,7 +7495,7 @@
         <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
@@ -7502,7 +7503,7 @@
         <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
@@ -7510,7 +7511,7 @@
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
@@ -7518,10 +7519,10 @@
         <v>8</v>
       </c>
       <c r="D139" t="s">
+        <v>482</v>
+      </c>
+      <c r="F139" t="s">
         <v>483</v>
-      </c>
-      <c r="F139" t="s">
-        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -7536,6 +7537,39 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="45">
+    <mergeCell ref="I27:I33"/>
+    <mergeCell ref="I69:I87"/>
+    <mergeCell ref="I112:I116"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="I123:I126"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A47"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A48:A70"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A71:A94"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B87"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B94"/>
     <mergeCell ref="A128:B128"/>
     <mergeCell ref="A123:A126"/>
     <mergeCell ref="A99:A100"/>
@@ -7548,39 +7582,6 @@
     <mergeCell ref="B117:B120"/>
     <mergeCell ref="B121:B122"/>
     <mergeCell ref="B104:B106"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A48:A70"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A71:A94"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B87"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A47"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="I27:I33"/>
-    <mergeCell ref="I69:I87"/>
-    <mergeCell ref="I112:I116"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="I123:I126"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
